--- a/output7/【河洛文讀注音-雅俗通】《蘭亭集序》.xlsx
+++ b/output7/【河洛文讀注音-雅俗通】《蘭亭集序》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD90FE99-2ABB-4A44-90DB-F3F6CC983114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{317E6E7E-F8AF-475A-A015-93C26E8C1325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView minimized="1" xWindow="-29310" yWindow="2325" windowWidth="31695" windowHeight="14280" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -6171,7 +6171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6350,31 +6350,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -8120,7 +8095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0277011-809F-409E-9124-8E0C77B6754C}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -11698,8 +11673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A107" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A119" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -11815,21 +11790,21 @@
     <row r="3" spans="1:22" s="23" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
       <c r="T3" s="24"/>
       <c r="V3" s="57" t="s">
         <v>1174</v>
@@ -11837,45 +11812,45 @@
     </row>
     <row r="4" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="25"/>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="26" t="s">
         <v>455</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="26" t="s">
         <v>1313</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66" t="s">
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>1316</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="26" t="s">
         <v>1319</v>
       </c>
-      <c r="L4" s="66" t="s">
+      <c r="L4" s="26" t="s">
         <v>1321</v>
       </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66" t="s">
+      <c r="M4" s="26"/>
+      <c r="N4" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="26" t="s">
         <v>1326</v>
       </c>
-      <c r="R4" s="66"/>
+      <c r="R4" s="26"/>
       <c r="S4" s="27"/>
       <c r="V4" s="58"/>
     </row>
@@ -11883,49 +11858,49 @@
       <c r="B5" s="28">
         <v>1</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="51" t="s">
         <v>1176</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="51" t="s">
         <v>1177</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="51" t="s">
         <v>1178</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="51" t="s">
         <v>1179</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="51" t="s">
         <v>1180</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="60" t="s">
+      <c r="N5" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="O5" s="60" t="s">
+      <c r="O5" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="P5" s="60" t="s">
+      <c r="P5" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="Q5" s="60" t="s">
+      <c r="Q5" s="51" t="s">
         <v>1181</v>
       </c>
-      <c r="R5" s="60" t="s">
+      <c r="R5" s="51" t="s">
         <v>31</v>
       </c>
       <c r="S5" s="29"/>
@@ -11934,112 +11909,112 @@
     <row r="6" spans="1:22" s="34" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="32" t="s">
         <v>1311</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="32" t="s">
         <v>1312</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="32" t="s">
         <v>1314</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="32" t="s">
         <v>1315</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67" t="s">
+      <c r="H6" s="32"/>
+      <c r="I6" s="32" t="s">
         <v>1317</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="32" t="s">
         <v>1318</v>
       </c>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="32" t="s">
         <v>1320</v>
       </c>
-      <c r="L6" s="67" t="s">
+      <c r="L6" s="32" t="s">
         <v>1322</v>
       </c>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67" t="s">
+      <c r="M6" s="32"/>
+      <c r="N6" s="32" t="s">
         <v>1323</v>
       </c>
-      <c r="O6" s="67" t="s">
+      <c r="O6" s="32" t="s">
         <v>1324</v>
       </c>
-      <c r="P6" s="67" t="s">
+      <c r="P6" s="32" t="s">
         <v>1325</v>
       </c>
-      <c r="Q6" s="67" t="s">
+      <c r="Q6" s="32" t="s">
         <v>1327</v>
       </c>
-      <c r="R6" s="67"/>
+      <c r="R6" s="32"/>
       <c r="S6" s="33"/>
       <c r="V6" s="58"/>
     </row>
     <row r="7" spans="1:22" s="38" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
       <c r="S7" s="37"/>
       <c r="V7" s="58"/>
     </row>
     <row r="8" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="25"/>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="26" t="s">
         <v>1330</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="I8" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="K8" s="66" t="s">
+      <c r="K8" s="26" t="s">
         <v>442</v>
       </c>
-      <c r="L8" s="66" t="s">
+      <c r="L8" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66" t="s">
+      <c r="M8" s="26"/>
+      <c r="N8" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="O8" s="66" t="s">
+      <c r="O8" s="26" t="s">
         <v>1337</v>
       </c>
-      <c r="P8" s="66" t="s">
+      <c r="P8" s="26" t="s">
         <v>1339</v>
       </c>
-      <c r="Q8" s="66" t="s">
+      <c r="Q8" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="R8" s="66"/>
+      <c r="R8" s="26"/>
       <c r="S8" s="27"/>
       <c r="V8" s="58"/>
     </row>
@@ -12048,49 +12023,49 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="51" t="s">
         <v>1182</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="K9" s="60" t="s">
+      <c r="K9" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="51" t="s">
         <v>1183</v>
       </c>
-      <c r="M9" s="60" t="s">
+      <c r="M9" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="60" t="s">
+      <c r="N9" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="O9" s="60" t="s">
+      <c r="O9" s="51" t="s">
         <v>1184</v>
       </c>
-      <c r="P9" s="60" t="s">
+      <c r="P9" s="51" t="s">
         <v>1185</v>
       </c>
-      <c r="Q9" s="60" t="s">
+      <c r="Q9" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="R9" s="60" t="s">
+      <c r="R9" s="51" t="s">
         <v>38</v>
       </c>
       <c r="S9" s="29"/>
@@ -12099,111 +12074,111 @@
     </row>
     <row r="10" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="30"/>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="32" t="s">
         <v>1328</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="32" t="s">
         <v>1329</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="32" t="s">
         <v>1328</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="32" t="s">
         <v>1331</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="32" t="s">
         <v>1332</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="32" t="s">
         <v>1333</v>
       </c>
-      <c r="J10" s="67" t="s">
+      <c r="J10" s="32" t="s">
         <v>1325</v>
       </c>
-      <c r="K10" s="67" t="s">
+      <c r="K10" s="32" t="s">
         <v>1334</v>
       </c>
-      <c r="L10" s="67" t="s">
+      <c r="L10" s="32" t="s">
         <v>1335</v>
       </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67" t="s">
+      <c r="M10" s="32"/>
+      <c r="N10" s="32" t="s">
         <v>1336</v>
       </c>
-      <c r="O10" s="67" t="s">
+      <c r="O10" s="32" t="s">
         <v>1338</v>
       </c>
-      <c r="P10" s="67" t="s">
+      <c r="P10" s="32" t="s">
         <v>1340</v>
       </c>
-      <c r="Q10" s="67" t="s">
+      <c r="Q10" s="32" t="s">
         <v>1341</v>
       </c>
-      <c r="R10" s="67"/>
+      <c r="R10" s="32"/>
       <c r="S10" s="39"/>
       <c r="V10" s="58"/>
     </row>
     <row r="11" spans="1:22" s="37" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="40"/>
       <c r="C11" s="41"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
       <c r="V11" s="58"/>
     </row>
     <row r="12" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="25"/>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="26" t="s">
         <v>1342</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="G12" s="66" t="s">
+      <c r="G12" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66" t="s">
+      <c r="H12" s="26"/>
+      <c r="I12" s="26" t="s">
         <v>1347</v>
       </c>
-      <c r="J12" s="66" t="s">
+      <c r="J12" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="K12" s="66" t="s">
+      <c r="K12" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="L12" s="66" t="s">
+      <c r="L12" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66" t="s">
+      <c r="M12" s="26"/>
+      <c r="N12" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="O12" s="66" t="s">
+      <c r="O12" s="26" t="s">
         <v>1353</v>
       </c>
-      <c r="P12" s="66" t="s">
+      <c r="P12" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="Q12" s="66" t="s">
+      <c r="Q12" s="26" t="s">
         <v>1356</v>
       </c>
-      <c r="R12" s="66" t="s">
+      <c r="R12" s="26" t="s">
         <v>365</v>
       </c>
       <c r="S12" s="27"/>
@@ -12214,49 +12189,49 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="51" t="s">
         <v>1186</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="51" t="s">
         <v>1187</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="51" t="s">
         <v>1188</v>
       </c>
-      <c r="J13" s="60" t="s">
+      <c r="J13" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="K13" s="60" t="s">
+      <c r="K13" s="51" t="s">
         <v>1189</v>
       </c>
-      <c r="L13" s="60" t="s">
+      <c r="L13" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="60" t="s">
+      <c r="N13" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="O13" s="60" t="s">
+      <c r="O13" s="51" t="s">
         <v>1190</v>
       </c>
-      <c r="P13" s="60" t="s">
+      <c r="P13" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="60" t="s">
+      <c r="Q13" s="51" t="s">
         <v>1191</v>
       </c>
-      <c r="R13" s="60" t="s">
+      <c r="R13" s="51" t="s">
         <v>136</v>
       </c>
       <c r="S13" s="29"/>
@@ -12264,45 +12239,45 @@
     </row>
     <row r="14" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="30"/>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="32" t="s">
         <v>1343</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="32" t="s">
         <v>1344</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="32" t="s">
         <v>1345</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="G14" s="32" t="s">
         <v>1346</v>
       </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67" t="s">
+      <c r="H14" s="32"/>
+      <c r="I14" s="32" t="s">
         <v>1348</v>
       </c>
-      <c r="J14" s="67" t="s">
+      <c r="J14" s="32" t="s">
         <v>1349</v>
       </c>
-      <c r="K14" s="67" t="s">
+      <c r="K14" s="32" t="s">
         <v>1350</v>
       </c>
-      <c r="L14" s="67" t="s">
+      <c r="L14" s="32" t="s">
         <v>1351</v>
       </c>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67" t="s">
+      <c r="M14" s="32"/>
+      <c r="N14" s="32" t="s">
         <v>1352</v>
       </c>
-      <c r="O14" s="67" t="s">
+      <c r="O14" s="32" t="s">
         <v>1354</v>
       </c>
-      <c r="P14" s="67" t="s">
+      <c r="P14" s="32" t="s">
         <v>1355</v>
       </c>
-      <c r="Q14" s="67" t="s">
+      <c r="Q14" s="32" t="s">
         <v>1357</v>
       </c>
-      <c r="R14" s="67" t="s">
+      <c r="R14" s="32" t="s">
         <v>1332</v>
       </c>
       <c r="S14" s="39"/>
@@ -12311,64 +12286,64 @@
     <row r="15" spans="1:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="20"/>
       <c r="C15" s="42"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
       <c r="V15" s="58"/>
     </row>
     <row r="16" spans="1:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="25"/>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="26" t="s">
         <v>1358</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="26" t="s">
         <v>1360</v>
       </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66" t="s">
+      <c r="F16" s="26"/>
+      <c r="G16" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="H16" s="66" t="s">
+      <c r="H16" s="26" t="s">
         <v>478</v>
       </c>
-      <c r="I16" s="66" t="s">
+      <c r="I16" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="J16" s="66" t="s">
+      <c r="J16" s="26" t="s">
         <v>1363</v>
       </c>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66" t="s">
+      <c r="K16" s="26"/>
+      <c r="L16" s="26" t="s">
         <v>1365</v>
       </c>
-      <c r="M16" s="66" t="s">
+      <c r="M16" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="N16" s="66" t="s">
+      <c r="N16" s="26" t="s">
         <v>1367</v>
       </c>
-      <c r="O16" s="66" t="s">
+      <c r="O16" s="26" t="s">
         <v>1369</v>
       </c>
-      <c r="P16" s="66" t="s">
+      <c r="P16" s="26" t="s">
         <v>1371</v>
       </c>
-      <c r="Q16" s="66" t="s">
+      <c r="Q16" s="26" t="s">
         <v>1373</v>
       </c>
-      <c r="R16" s="66"/>
+      <c r="R16" s="26"/>
       <c r="S16" s="27"/>
       <c r="V16" s="58"/>
     </row>
@@ -12377,49 +12352,49 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="51" t="s">
         <v>1192</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="51" t="s">
         <v>1193</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="51" t="s">
         <v>1194</v>
       </c>
-      <c r="H17" s="60" t="s">
+      <c r="H17" s="51" t="s">
         <v>1195</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="J17" s="60" t="s">
+      <c r="J17" s="51" t="s">
         <v>1196</v>
       </c>
-      <c r="K17" s="60" t="s">
+      <c r="K17" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="L17" s="60" t="s">
+      <c r="L17" s="51" t="s">
         <v>1197</v>
       </c>
-      <c r="M17" s="60" t="s">
+      <c r="M17" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="60" t="s">
+      <c r="N17" s="51" t="s">
         <v>1198</v>
       </c>
-      <c r="O17" s="60" t="s">
+      <c r="O17" s="51" t="s">
         <v>1199</v>
       </c>
-      <c r="P17" s="60" t="s">
+      <c r="P17" s="51" t="s">
         <v>1200</v>
       </c>
-      <c r="Q17" s="60" t="s">
+      <c r="Q17" s="51" t="s">
         <v>1201</v>
       </c>
-      <c r="R17" s="60" t="s">
+      <c r="R17" s="51" t="s">
         <v>31</v>
       </c>
       <c r="S17" s="29"/>
@@ -12427,109 +12402,109 @@
     </row>
     <row r="18" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="30"/>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="32" t="s">
         <v>1359</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="32" t="s">
         <v>1361</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67" t="s">
+      <c r="F18" s="32"/>
+      <c r="G18" s="32" t="s">
         <v>1323</v>
       </c>
-      <c r="H18" s="67" t="s">
+      <c r="H18" s="32" t="s">
         <v>1362</v>
       </c>
-      <c r="I18" s="67" t="s">
+      <c r="I18" s="32" t="s">
         <v>1336</v>
       </c>
-      <c r="J18" s="67" t="s">
+      <c r="J18" s="32" t="s">
         <v>1364</v>
       </c>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67" t="s">
+      <c r="K18" s="32"/>
+      <c r="L18" s="32" t="s">
         <v>1366</v>
       </c>
-      <c r="M18" s="67" t="s">
+      <c r="M18" s="32" t="s">
         <v>1355</v>
       </c>
-      <c r="N18" s="67" t="s">
+      <c r="N18" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="O18" s="67" t="s">
+      <c r="O18" s="32" t="s">
         <v>1370</v>
       </c>
-      <c r="P18" s="67" t="s">
+      <c r="P18" s="32" t="s">
         <v>1372</v>
       </c>
-      <c r="Q18" s="67" t="s">
+      <c r="Q18" s="32" t="s">
         <v>1374</v>
       </c>
-      <c r="R18" s="67"/>
+      <c r="R18" s="32"/>
       <c r="S18" s="39"/>
       <c r="V18" s="58"/>
     </row>
     <row r="19" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="20"/>
       <c r="C19" s="42"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
       <c r="V19" s="58"/>
     </row>
     <row r="20" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="25"/>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="26" t="s">
         <v>1375</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="26" t="s">
         <v>1377</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="26" t="s">
         <v>1379</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="26" t="s">
         <v>1365</v>
       </c>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66" t="s">
+      <c r="H20" s="26"/>
+      <c r="I20" s="26" t="s">
         <v>1381</v>
       </c>
-      <c r="J20" s="66" t="s">
+      <c r="J20" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="K20" s="66" t="s">
+      <c r="K20" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="66" t="s">
+      <c r="L20" s="26" t="s">
         <v>1369</v>
       </c>
-      <c r="M20" s="66" t="s">
+      <c r="M20" s="26" t="s">
         <v>1385</v>
       </c>
-      <c r="N20" s="66" t="s">
+      <c r="N20" s="26" t="s">
         <v>1387</v>
       </c>
-      <c r="O20" s="66" t="s">
+      <c r="O20" s="26" t="s">
         <v>1389</v>
       </c>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66" t="s">
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26" t="s">
         <v>1391</v>
       </c>
-      <c r="R20" s="66" t="s">
+      <c r="R20" s="26" t="s">
         <v>1393</v>
       </c>
       <c r="S20" s="27"/>
@@ -12540,49 +12515,49 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="51" t="s">
         <v>1202</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="51" t="s">
         <v>1203</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="51" t="s">
         <v>1204</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="51" t="s">
         <v>1205</v>
       </c>
-      <c r="H21" s="60" t="s">
+      <c r="H21" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="60" t="s">
+      <c r="I21" s="51" t="s">
         <v>1206</v>
       </c>
-      <c r="J21" s="60" t="s">
+      <c r="J21" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="K21" s="60" t="s">
+      <c r="K21" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="L21" s="60" t="s">
+      <c r="L21" s="51" t="s">
         <v>1199</v>
       </c>
-      <c r="M21" s="61" t="s">
+      <c r="M21" s="52" t="s">
         <v>1207</v>
       </c>
-      <c r="N21" s="60" t="s">
+      <c r="N21" s="51" t="s">
         <v>1208</v>
       </c>
-      <c r="O21" s="60" t="s">
+      <c r="O21" s="51" t="s">
         <v>1209</v>
       </c>
-      <c r="P21" s="60" t="s">
+      <c r="P21" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="Q21" s="60" t="s">
+      <c r="Q21" s="51" t="s">
         <v>1210</v>
       </c>
-      <c r="R21" s="60" t="s">
+      <c r="R21" s="51" t="s">
         <v>1211</v>
       </c>
       <c r="S21" s="29"/>
@@ -12590,45 +12565,45 @@
     </row>
     <row r="22" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="30"/>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="32" t="s">
         <v>1376</v>
       </c>
-      <c r="E22" s="67" t="s">
+      <c r="E22" s="32" t="s">
         <v>1378</v>
       </c>
-      <c r="F22" s="67" t="s">
+      <c r="F22" s="32" t="s">
         <v>1380</v>
       </c>
-      <c r="G22" s="67" t="s">
+      <c r="G22" s="32" t="s">
         <v>1366</v>
       </c>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67" t="s">
+      <c r="H22" s="32"/>
+      <c r="I22" s="32" t="s">
         <v>1382</v>
       </c>
-      <c r="J22" s="67" t="s">
+      <c r="J22" s="32" t="s">
         <v>1383</v>
       </c>
-      <c r="K22" s="67" t="s">
+      <c r="K22" s="32" t="s">
         <v>1384</v>
       </c>
-      <c r="L22" s="67" t="s">
+      <c r="L22" s="32" t="s">
         <v>1370</v>
       </c>
-      <c r="M22" s="67" t="s">
+      <c r="M22" s="32" t="s">
         <v>1386</v>
       </c>
-      <c r="N22" s="67" t="s">
+      <c r="N22" s="32" t="s">
         <v>1388</v>
       </c>
-      <c r="O22" s="67" t="s">
+      <c r="O22" s="32" t="s">
         <v>1390</v>
       </c>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67" t="s">
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32" t="s">
         <v>1392</v>
       </c>
-      <c r="R22" s="67" t="s">
+      <c r="R22" s="32" t="s">
         <v>1394</v>
       </c>
       <c r="S22" s="39"/>
@@ -12637,64 +12612,64 @@
     <row r="23" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="20"/>
       <c r="C23" s="42"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
       <c r="V23" s="44"/>
     </row>
     <row r="24" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="25"/>
-      <c r="D24" s="66" t="s">
+      <c r="D24" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="26" t="s">
         <v>1396</v>
       </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66" t="s">
+      <c r="F24" s="26"/>
+      <c r="G24" s="26" t="s">
         <v>1398</v>
       </c>
-      <c r="H24" s="66" t="s">
+      <c r="H24" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="I24" s="66" t="s">
+      <c r="I24" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="J24" s="66" t="s">
+      <c r="J24" s="26" t="s">
         <v>1363</v>
       </c>
-      <c r="K24" s="66" t="s">
+      <c r="K24" s="26" t="s">
         <v>1402</v>
       </c>
-      <c r="L24" s="66" t="s">
+      <c r="L24" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="M24" s="66" t="s">
+      <c r="M24" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="N24" s="66" t="s">
+      <c r="N24" s="26" t="s">
         <v>1404</v>
       </c>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66" t="s">
+      <c r="O24" s="26"/>
+      <c r="P24" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="Q24" s="66" t="s">
+      <c r="Q24" s="26" t="s">
         <v>1385</v>
       </c>
-      <c r="R24" s="66" t="s">
+      <c r="R24" s="26" t="s">
         <v>362</v>
       </c>
       <c r="S24" s="27"/>
@@ -12705,49 +12680,49 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="51" t="s">
         <v>1212</v>
       </c>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="51" t="s">
         <v>1213</v>
       </c>
-      <c r="H25" s="60" t="s">
+      <c r="H25" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="60" t="s">
+      <c r="I25" s="51" t="s">
         <v>1214</v>
       </c>
-      <c r="J25" s="60" t="s">
+      <c r="J25" s="51" t="s">
         <v>1196</v>
       </c>
-      <c r="K25" s="60" t="s">
+      <c r="K25" s="51" t="s">
         <v>1215</v>
       </c>
-      <c r="L25" s="60" t="s">
+      <c r="L25" s="51" t="s">
         <v>1216</v>
       </c>
-      <c r="M25" s="60" t="s">
+      <c r="M25" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="N25" s="60" t="s">
+      <c r="N25" s="51" t="s">
         <v>1217</v>
       </c>
-      <c r="O25" s="60" t="s">
+      <c r="O25" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="P25" s="60" t="s">
+      <c r="P25" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="Q25" s="60" t="s">
+      <c r="Q25" s="51" t="s">
         <v>1207</v>
       </c>
-      <c r="R25" s="60" t="s">
+      <c r="R25" s="51" t="s">
         <v>39</v>
       </c>
       <c r="S25" s="29"/>
@@ -12755,68 +12730,64 @@
     </row>
     <row r="26" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="30"/>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="32" t="s">
         <v>1395</v>
       </c>
-      <c r="E26" s="67" t="s">
+      <c r="E26" s="32" t="s">
         <v>1397</v>
       </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67" t="s">
+      <c r="F26" s="32"/>
+      <c r="G26" s="32" t="s">
         <v>1399</v>
       </c>
-      <c r="H26" s="67" t="s">
+      <c r="H26" s="32" t="s">
         <v>1400</v>
       </c>
-      <c r="I26" s="67" t="s">
+      <c r="I26" s="32" t="s">
         <v>1401</v>
       </c>
-      <c r="J26" s="67" t="s">
+      <c r="J26" s="32" t="s">
         <v>1364</v>
       </c>
-      <c r="K26" s="67" t="s">
+      <c r="K26" s="32" t="s">
         <v>1403</v>
       </c>
-      <c r="L26" s="67" t="s">
+      <c r="L26" s="32" t="s">
         <v>1344</v>
       </c>
-      <c r="M26" s="67" t="s">
+      <c r="M26" s="32" t="s">
         <v>1325</v>
       </c>
-      <c r="N26" s="67" t="s">
+      <c r="N26" s="32" t="s">
         <v>1405</v>
       </c>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67" t="s">
+      <c r="O26" s="32"/>
+      <c r="P26" s="32" t="s">
         <v>1406</v>
       </c>
-      <c r="Q26" s="67" t="s">
+      <c r="Q26" s="32" t="s">
         <v>1386</v>
       </c>
-      <c r="R26" s="67" t="s">
+      <c r="R26" s="32" t="s">
         <v>1406</v>
       </c>
       <c r="S26" s="39"/>
-      <c r="U26" s="14" t="str">
-        <f xml:space="preserve"> MID($N$26,3,1)</f>
-        <v>時</v>
-      </c>
       <c r="V26" s="15"/>
     </row>
     <row r="27" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="20"/>
       <c r="C27" s="42"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
       <c r="Q27" s="22"/>
@@ -12829,33 +12800,33 @@
     </row>
     <row r="28" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="25"/>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="26" t="s">
         <v>1407</v>
       </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="G28" s="66" t="s">
+      <c r="G28" s="26" t="s">
         <v>1410</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="H28" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="I28" s="66" t="s">
+      <c r="I28" s="26" t="s">
         <v>1412</v>
       </c>
-      <c r="J28" s="66" t="s">
+      <c r="J28" s="26" t="s">
         <v>1339</v>
       </c>
-      <c r="K28" s="66" t="s">
+      <c r="K28" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="L28" s="66" t="s">
+      <c r="L28" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
       <c r="O28" s="26"/>
       <c r="P28" s="26"/>
       <c r="Q28" s="26"/>
@@ -12872,45 +12843,45 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="51" t="s">
         <v>1218</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="60" t="s">
+      <c r="F29" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="G29" s="60" t="s">
+      <c r="G29" s="51" t="s">
         <v>1219</v>
       </c>
-      <c r="H29" s="60" t="s">
+      <c r="H29" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="I29" s="60" t="s">
+      <c r="I29" s="51" t="s">
         <v>1220</v>
       </c>
-      <c r="J29" s="60" t="s">
+      <c r="J29" s="51" t="s">
         <v>1221</v>
       </c>
-      <c r="K29" s="60" t="s">
+      <c r="K29" s="51" t="s">
         <v>1222</v>
       </c>
-      <c r="L29" s="60" t="s">
+      <c r="L29" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="M29" s="60" t="s">
+      <c r="M29" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N29" s="60" t="str">
+      <c r="N29" s="51" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
       <c r="S29" s="29"/>
       <c r="U29" s="43" t="str">
         <f t="shared" si="1"/>
@@ -12920,33 +12891,33 @@
     </row>
     <row r="30" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="30"/>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="32" t="s">
         <v>1408</v>
       </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67" t="s">
+      <c r="E30" s="32"/>
+      <c r="F30" s="32" t="s">
         <v>1409</v>
       </c>
-      <c r="G30" s="67" t="s">
+      <c r="G30" s="32" t="s">
         <v>1411</v>
       </c>
-      <c r="H30" s="67" t="s">
+      <c r="H30" s="32" t="s">
         <v>1383</v>
       </c>
-      <c r="I30" s="67" t="s">
+      <c r="I30" s="32" t="s">
         <v>1413</v>
       </c>
-      <c r="J30" s="67" t="s">
+      <c r="J30" s="32" t="s">
         <v>1340</v>
       </c>
-      <c r="K30" s="67" t="s">
+      <c r="K30" s="32" t="s">
         <v>1414</v>
       </c>
-      <c r="L30" s="67" t="s">
+      <c r="L30" s="32" t="s">
         <v>1415</v>
       </c>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
       <c r="O30" s="32"/>
       <c r="P30" s="32"/>
       <c r="Q30" s="32"/>
@@ -12961,7 +12932,7 @@
     <row r="31" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="20"/>
       <c r="C31" s="42"/>
-      <c r="D31" s="65"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
@@ -12984,7 +12955,7 @@
     </row>
     <row r="32" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="25"/>
-      <c r="D32" s="66"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
@@ -13011,31 +12982,31 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="60" t="str">
+      <c r="D33" s="51" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="60"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
       <c r="S33" s="29"/>
       <c r="V33" s="15"/>
     </row>
     <row r="34" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="30"/>
-      <c r="D34" s="67"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
@@ -13056,62 +13027,62 @@
     <row r="35" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="20"/>
       <c r="C35" s="42"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
       <c r="V35" s="44"/>
     </row>
     <row r="36" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="25"/>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="F36" s="66" t="s">
+      <c r="F36" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66" t="s">
+      <c r="G36" s="26"/>
+      <c r="H36" s="26" t="s">
         <v>445</v>
       </c>
-      <c r="I36" s="66" t="s">
+      <c r="I36" s="26" t="s">
         <v>1419</v>
       </c>
-      <c r="J36" s="66" t="s">
+      <c r="J36" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="K36" s="66" t="s">
+      <c r="K36" s="26" t="s">
         <v>1367</v>
       </c>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66" t="s">
+      <c r="L36" s="26"/>
+      <c r="M36" s="26" t="s">
         <v>1422</v>
       </c>
-      <c r="N36" s="66" t="s">
+      <c r="N36" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="O36" s="66" t="s">
+      <c r="O36" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="P36" s="66" t="s">
+      <c r="P36" s="26" t="s">
         <v>1412</v>
       </c>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="66" t="s">
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26" t="s">
         <v>1425</v>
       </c>
       <c r="S36" s="27"/>
@@ -13122,49 +13093,49 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="F37" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="G37" s="60" t="s">
+      <c r="G37" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="60" t="s">
+      <c r="H37" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="I37" s="60" t="s">
+      <c r="I37" s="51" t="s">
         <v>1223</v>
       </c>
-      <c r="J37" s="60" t="s">
+      <c r="J37" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="K37" s="60" t="s">
+      <c r="K37" s="51" t="s">
         <v>1198</v>
       </c>
-      <c r="L37" s="60" t="s">
+      <c r="L37" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M37" s="60" t="s">
+      <c r="M37" s="51" t="s">
         <v>1224</v>
       </c>
-      <c r="N37" s="60" t="s">
+      <c r="N37" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="O37" s="60" t="s">
+      <c r="O37" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="P37" s="60" t="s">
+      <c r="P37" s="51" t="s">
         <v>1220</v>
       </c>
-      <c r="Q37" s="60" t="s">
+      <c r="Q37" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="R37" s="60" t="s">
+      <c r="R37" s="51" t="s">
         <v>1225</v>
       </c>
       <c r="S37" s="29"/>
@@ -13172,43 +13143,43 @@
     </row>
     <row r="38" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="30"/>
-      <c r="D38" s="67" t="s">
+      <c r="D38" s="32" t="s">
         <v>1416</v>
       </c>
-      <c r="E38" s="67" t="s">
+      <c r="E38" s="32" t="s">
         <v>1417</v>
       </c>
-      <c r="F38" s="67" t="s">
+      <c r="F38" s="32" t="s">
         <v>1341</v>
       </c>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67" t="s">
+      <c r="G38" s="32"/>
+      <c r="H38" s="32" t="s">
         <v>1418</v>
       </c>
-      <c r="I38" s="67" t="s">
+      <c r="I38" s="32" t="s">
         <v>1420</v>
       </c>
-      <c r="J38" s="67" t="s">
+      <c r="J38" s="32" t="s">
         <v>1421</v>
       </c>
-      <c r="K38" s="67" t="s">
+      <c r="K38" s="32" t="s">
         <v>1368</v>
       </c>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67" t="s">
+      <c r="L38" s="32"/>
+      <c r="M38" s="32" t="s">
         <v>1423</v>
       </c>
-      <c r="N38" s="67" t="s">
+      <c r="N38" s="32" t="s">
         <v>1424</v>
       </c>
-      <c r="O38" s="67" t="s">
+      <c r="O38" s="32" t="s">
         <v>1312</v>
       </c>
-      <c r="P38" s="67" t="s">
+      <c r="P38" s="32" t="s">
         <v>1413</v>
       </c>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="67" t="s">
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32" t="s">
         <v>1426</v>
       </c>
       <c r="S38" s="39"/>
@@ -13217,64 +13188,64 @@
     <row r="39" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="20"/>
       <c r="C39" s="42"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="65"/>
-      <c r="O39" s="65"/>
-      <c r="P39" s="65"/>
-      <c r="Q39" s="65"/>
-      <c r="R39" s="65"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
       <c r="V39" s="44"/>
     </row>
     <row r="40" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="25"/>
-      <c r="D40" s="66" t="s">
+      <c r="D40" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="E40" s="66" t="s">
+      <c r="E40" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="F40" s="66" t="s">
+      <c r="F40" s="26" t="s">
         <v>1429</v>
       </c>
-      <c r="G40" s="66" t="s">
+      <c r="G40" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="H40" s="66" t="s">
+      <c r="H40" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66" t="s">
+      <c r="I40" s="26"/>
+      <c r="J40" s="26" t="s">
         <v>1432</v>
       </c>
-      <c r="K40" s="66" t="s">
+      <c r="K40" s="26" t="s">
         <v>1434</v>
       </c>
-      <c r="L40" s="66" t="s">
+      <c r="L40" s="26" t="s">
         <v>1436</v>
       </c>
-      <c r="M40" s="66" t="s">
+      <c r="M40" s="26" t="s">
         <v>1438</v>
       </c>
-      <c r="N40" s="66" t="s">
+      <c r="N40" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="O40" s="66" t="s">
+      <c r="O40" s="26" t="s">
         <v>1404</v>
       </c>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="66" t="s">
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26" t="s">
         <v>1440</v>
       </c>
-      <c r="R40" s="66" t="s">
+      <c r="R40" s="26" t="s">
         <v>353</v>
       </c>
       <c r="S40" s="27"/>
@@ -13285,49 +13256,49 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="60" t="s">
+      <c r="D41" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="E41" s="60" t="s">
+      <c r="E41" s="51" t="s">
         <v>1226</v>
       </c>
-      <c r="F41" s="60" t="s">
+      <c r="F41" s="51" t="s">
         <v>1227</v>
       </c>
-      <c r="G41" s="60" t="s">
+      <c r="G41" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="60" t="s">
+      <c r="H41" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="60" t="s">
+      <c r="I41" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="60" t="s">
+      <c r="J41" s="51" t="s">
         <v>1228</v>
       </c>
-      <c r="K41" s="60" t="s">
+      <c r="K41" s="51" t="s">
         <v>1229</v>
       </c>
-      <c r="L41" s="60" t="s">
+      <c r="L41" s="51" t="s">
         <v>1230</v>
       </c>
-      <c r="M41" s="60" t="s">
+      <c r="M41" s="51" t="s">
         <v>1231</v>
       </c>
-      <c r="N41" s="60" t="s">
+      <c r="N41" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="O41" s="60" t="s">
+      <c r="O41" s="51" t="s">
         <v>1217</v>
       </c>
-      <c r="P41" s="60" t="s">
+      <c r="P41" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="Q41" s="60" t="s">
+      <c r="Q41" s="51" t="s">
         <v>1232</v>
       </c>
-      <c r="R41" s="60" t="s">
+      <c r="R41" s="51" t="s">
         <v>123</v>
       </c>
       <c r="S41" s="29"/>
@@ -13335,45 +13306,45 @@
     </row>
     <row r="42" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="30"/>
-      <c r="D42" s="67" t="s">
+      <c r="D42" s="32" t="s">
         <v>1427</v>
       </c>
-      <c r="E42" s="67" t="s">
+      <c r="E42" s="32" t="s">
         <v>1428</v>
       </c>
-      <c r="F42" s="67" t="s">
+      <c r="F42" s="32" t="s">
         <v>1430</v>
       </c>
-      <c r="G42" s="67" t="s">
+      <c r="G42" s="32" t="s">
         <v>1325</v>
       </c>
-      <c r="H42" s="67" t="s">
+      <c r="H42" s="32" t="s">
         <v>1431</v>
       </c>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67" t="s">
+      <c r="I42" s="32"/>
+      <c r="J42" s="32" t="s">
         <v>1433</v>
       </c>
-      <c r="K42" s="67" t="s">
+      <c r="K42" s="32" t="s">
         <v>1435</v>
       </c>
-      <c r="L42" s="67" t="s">
+      <c r="L42" s="32" t="s">
         <v>1437</v>
       </c>
-      <c r="M42" s="67" t="s">
+      <c r="M42" s="32" t="s">
         <v>1439</v>
       </c>
-      <c r="N42" s="67" t="s">
+      <c r="N42" s="32" t="s">
         <v>1325</v>
       </c>
-      <c r="O42" s="67" t="s">
+      <c r="O42" s="32" t="s">
         <v>1405</v>
       </c>
-      <c r="P42" s="67"/>
-      <c r="Q42" s="67" t="s">
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32" t="s">
         <v>1441</v>
       </c>
-      <c r="R42" s="67" t="s">
+      <c r="R42" s="32" t="s">
         <v>1383</v>
       </c>
       <c r="S42" s="39"/>
@@ -13382,64 +13353,64 @@
     <row r="43" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="20"/>
       <c r="C43" s="42"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="65"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="65"/>
-      <c r="O43" s="65"/>
-      <c r="P43" s="65"/>
-      <c r="Q43" s="65"/>
-      <c r="R43" s="65"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
       <c r="V43" s="44"/>
     </row>
     <row r="44" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="25"/>
-      <c r="D44" s="66" t="s">
+      <c r="D44" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="E44" s="66" t="s">
+      <c r="E44" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="F44" s="66" t="s">
+      <c r="F44" s="26" t="s">
         <v>1444</v>
       </c>
-      <c r="G44" s="66" t="s">
+      <c r="G44" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66" t="s">
+      <c r="H44" s="26"/>
+      <c r="I44" s="26" t="s">
         <v>1410</v>
       </c>
-      <c r="J44" s="66" t="s">
+      <c r="J44" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="K44" s="66" t="s">
+      <c r="K44" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="L44" s="66" t="s">
+      <c r="L44" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="M44" s="66" t="s">
+      <c r="M44" s="26" t="s">
         <v>1448</v>
       </c>
-      <c r="N44" s="66" t="s">
+      <c r="N44" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="O44" s="66" t="s">
+      <c r="O44" s="26" t="s">
         <v>465</v>
       </c>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="66" t="s">
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26" t="s">
         <v>1451</v>
       </c>
-      <c r="R44" s="66" t="s">
+      <c r="R44" s="26" t="s">
         <v>1453</v>
       </c>
       <c r="S44" s="27"/>
@@ -13450,49 +13421,49 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="51" t="s">
         <v>1233</v>
       </c>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="F45" s="60" t="s">
+      <c r="F45" s="51" t="s">
         <v>1234</v>
       </c>
-      <c r="G45" s="60" t="s">
+      <c r="G45" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="H45" s="60" t="s">
+      <c r="H45" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I45" s="60" t="s">
+      <c r="I45" s="51" t="s">
         <v>1219</v>
       </c>
-      <c r="J45" s="60" t="s">
+      <c r="J45" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="K45" s="60" t="s">
+      <c r="K45" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="L45" s="60" t="s">
+      <c r="L45" s="51" t="s">
         <v>1235</v>
       </c>
-      <c r="M45" s="60" t="s">
+      <c r="M45" s="51" t="s">
         <v>1236</v>
       </c>
-      <c r="N45" s="60" t="s">
+      <c r="N45" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="O45" s="60" t="s">
+      <c r="O45" s="51" t="s">
         <v>1237</v>
       </c>
-      <c r="P45" s="60" t="s">
+      <c r="P45" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="Q45" s="60" t="s">
+      <c r="Q45" s="51" t="s">
         <v>1238</v>
       </c>
-      <c r="R45" s="60" t="s">
+      <c r="R45" s="51" t="s">
         <v>1239</v>
       </c>
       <c r="S45" s="29"/>
@@ -13500,45 +13471,45 @@
     </row>
     <row r="46" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="30"/>
-      <c r="D46" s="67" t="s">
+      <c r="D46" s="32" t="s">
         <v>1442</v>
       </c>
-      <c r="E46" s="67" t="s">
+      <c r="E46" s="32" t="s">
         <v>1443</v>
       </c>
-      <c r="F46" s="67" t="s">
+      <c r="F46" s="32" t="s">
         <v>1445</v>
       </c>
-      <c r="G46" s="67" t="s">
+      <c r="G46" s="32" t="s">
         <v>1446</v>
       </c>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67" t="s">
+      <c r="H46" s="32"/>
+      <c r="I46" s="32" t="s">
         <v>1411</v>
       </c>
-      <c r="J46" s="67" t="s">
+      <c r="J46" s="32" t="s">
         <v>1383</v>
       </c>
-      <c r="K46" s="67" t="s">
+      <c r="K46" s="32" t="s">
         <v>1447</v>
       </c>
-      <c r="L46" s="67" t="s">
+      <c r="L46" s="32" t="s">
         <v>1416</v>
       </c>
-      <c r="M46" s="67" t="s">
+      <c r="M46" s="32" t="s">
         <v>1449</v>
       </c>
-      <c r="N46" s="67" t="s">
+      <c r="N46" s="32" t="s">
         <v>1325</v>
       </c>
-      <c r="O46" s="67" t="s">
+      <c r="O46" s="32" t="s">
         <v>1450</v>
       </c>
-      <c r="P46" s="67"/>
-      <c r="Q46" s="67" t="s">
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32" t="s">
         <v>1452</v>
       </c>
-      <c r="R46" s="67" t="s">
+      <c r="R46" s="32" t="s">
         <v>1454</v>
       </c>
       <c r="S46" s="39"/>
@@ -13547,10 +13518,10 @@
     <row r="47" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="20"/>
       <c r="C47" s="42"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
@@ -13566,14 +13537,14 @@
     </row>
     <row r="48" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="25"/>
-      <c r="D48" s="66" t="s">
+      <c r="D48" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="E48" s="66" t="s">
+      <c r="E48" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
       <c r="H48" s="26"/>
       <c r="I48" s="26"/>
       <c r="J48" s="26"/>
@@ -13593,44 +13564,44 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="60" t="s">
+      <c r="D49" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="E49" s="60" t="s">
+      <c r="E49" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="F49" s="60" t="s">
+      <c r="F49" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="G49" s="60" t="str">
+      <c r="G49" s="51" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="60"/>
-      <c r="N49" s="60"/>
-      <c r="O49" s="60"/>
-      <c r="P49" s="60"/>
-      <c r="Q49" s="60"/>
-      <c r="R49" s="60"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="51"/>
       <c r="S49" s="29"/>
       <c r="V49" s="15"/>
     </row>
     <row r="50" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="30"/>
-      <c r="D50" s="67" t="s">
+      <c r="D50" s="32" t="s">
         <v>1455</v>
       </c>
-      <c r="E50" s="67" t="s">
+      <c r="E50" s="32" t="s">
         <v>1341</v>
       </c>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -13648,7 +13619,7 @@
     <row r="51" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="20"/>
       <c r="C51" s="42"/>
-      <c r="D51" s="65"/>
+      <c r="D51" s="22"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
@@ -13667,7 +13638,7 @@
     </row>
     <row r="52" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="25"/>
-      <c r="D52" s="66"/>
+      <c r="D52" s="26"/>
       <c r="E52" s="26"/>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -13690,31 +13661,31 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="60" t="str">
+      <c r="D53" s="51" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="60"/>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="60"/>
-      <c r="R53" s="60"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="51"/>
       <c r="S53" s="29"/>
       <c r="V53" s="15"/>
     </row>
     <row r="54" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="30"/>
-      <c r="D54" s="67"/>
+      <c r="D54" s="32"/>
       <c r="E54" s="32"/>
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
@@ -13735,64 +13706,64 @@
     <row r="55" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="20"/>
       <c r="C55" s="42"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="65"/>
-      <c r="O55" s="65"/>
-      <c r="P55" s="65"/>
-      <c r="Q55" s="65"/>
-      <c r="R55" s="65"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
       <c r="V55" s="44"/>
     </row>
     <row r="56" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="25"/>
-      <c r="D56" s="66" t="s">
+      <c r="D56" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="E56" s="66" t="s">
+      <c r="E56" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F56" s="66" t="s">
+      <c r="F56" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="G56" s="66" t="s">
+      <c r="G56" s="26" t="s">
         <v>1458</v>
       </c>
-      <c r="H56" s="66" t="s">
+      <c r="H56" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66" t="s">
+      <c r="I56" s="26"/>
+      <c r="J56" s="26" t="s">
         <v>1432</v>
       </c>
-      <c r="K56" s="66" t="s">
+      <c r="K56" s="26" t="s">
         <v>1425</v>
       </c>
-      <c r="L56" s="66" t="s">
+      <c r="L56" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="M56" s="66" t="s">
+      <c r="M56" s="26" t="s">
         <v>1460</v>
       </c>
-      <c r="N56" s="66"/>
-      <c r="O56" s="66" t="s">
+      <c r="N56" s="26"/>
+      <c r="O56" s="26" t="s">
         <v>459</v>
       </c>
-      <c r="P56" s="66" t="s">
+      <c r="P56" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="Q56" s="66" t="s">
+      <c r="Q56" s="26" t="s">
         <v>1463</v>
       </c>
-      <c r="R56" s="66" t="s">
+      <c r="R56" s="26" t="s">
         <v>431</v>
       </c>
       <c r="S56" s="27"/>
@@ -13803,49 +13774,49 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="60" t="s">
+      <c r="D57" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="E57" s="60" t="s">
+      <c r="E57" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F57" s="60" t="s">
+      <c r="F57" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="G57" s="62" t="s">
+      <c r="G57" s="53" t="s">
         <v>1240</v>
       </c>
-      <c r="H57" s="60" t="s">
+      <c r="H57" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="I57" s="60" t="s">
+      <c r="I57" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J57" s="60" t="s">
+      <c r="J57" s="51" t="s">
         <v>1228</v>
       </c>
-      <c r="K57" s="60" t="s">
+      <c r="K57" s="51" t="s">
         <v>1225</v>
       </c>
-      <c r="L57" s="60" t="s">
+      <c r="L57" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="M57" s="60" t="s">
+      <c r="M57" s="51" t="s">
         <v>1241</v>
       </c>
-      <c r="N57" s="60" t="s">
+      <c r="N57" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="O57" s="60" t="s">
+      <c r="O57" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="P57" s="60" t="s">
+      <c r="P57" s="51" t="s">
         <v>1242</v>
       </c>
-      <c r="Q57" s="60" t="s">
+      <c r="Q57" s="51" t="s">
         <v>1243</v>
       </c>
-      <c r="R57" s="60" t="s">
+      <c r="R57" s="51" t="s">
         <v>218</v>
       </c>
       <c r="S57" s="29"/>
@@ -13853,45 +13824,45 @@
     </row>
     <row r="58" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="30"/>
-      <c r="D58" s="67" t="s">
+      <c r="D58" s="32" t="s">
         <v>1456</v>
       </c>
-      <c r="E58" s="67" t="s">
+      <c r="E58" s="32" t="s">
         <v>1457</v>
       </c>
-      <c r="F58" s="67" t="s">
+      <c r="F58" s="32" t="s">
         <v>1325</v>
       </c>
-      <c r="G58" s="67" t="s">
+      <c r="G58" s="32" t="s">
         <v>1459</v>
       </c>
-      <c r="H58" s="67" t="s">
+      <c r="H58" s="32" t="s">
         <v>1428</v>
       </c>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67" t="s">
+      <c r="I58" s="32"/>
+      <c r="J58" s="32" t="s">
         <v>1433</v>
       </c>
-      <c r="K58" s="67" t="s">
+      <c r="K58" s="32" t="s">
         <v>1426</v>
       </c>
-      <c r="L58" s="67" t="s">
+      <c r="L58" s="32" t="s">
         <v>1406</v>
       </c>
-      <c r="M58" s="67" t="s">
+      <c r="M58" s="32" t="s">
         <v>1461</v>
       </c>
-      <c r="N58" s="67"/>
-      <c r="O58" s="67" t="s">
+      <c r="N58" s="32"/>
+      <c r="O58" s="32" t="s">
         <v>1462</v>
       </c>
-      <c r="P58" s="67" t="s">
+      <c r="P58" s="32" t="s">
         <v>1352</v>
       </c>
-      <c r="Q58" s="67" t="s">
+      <c r="Q58" s="32" t="s">
         <v>1464</v>
       </c>
-      <c r="R58" s="67" t="s">
+      <c r="R58" s="32" t="s">
         <v>1446</v>
       </c>
       <c r="S58" s="39"/>
@@ -13900,64 +13871,64 @@
     <row r="59" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="20"/>
       <c r="C59" s="42"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="65"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="65"/>
-      <c r="O59" s="65"/>
-      <c r="P59" s="65"/>
-      <c r="Q59" s="65"/>
-      <c r="R59" s="65"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
       <c r="V59" s="44"/>
     </row>
     <row r="60" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="25"/>
-      <c r="D60" s="66" t="s">
+      <c r="D60" s="26" t="s">
         <v>1465</v>
       </c>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66" t="s">
+      <c r="E60" s="26"/>
+      <c r="F60" s="26" t="s">
         <v>1467</v>
       </c>
-      <c r="G60" s="66" t="s">
+      <c r="G60" s="26" t="s">
         <v>1469</v>
       </c>
-      <c r="H60" s="66" t="s">
+      <c r="H60" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="I60" s="66" t="s">
+      <c r="I60" s="26" t="s">
         <v>1471</v>
       </c>
-      <c r="J60" s="66" t="s">
+      <c r="J60" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="K60" s="66" t="s">
+      <c r="K60" s="26" t="s">
         <v>1473</v>
       </c>
-      <c r="L60" s="66"/>
-      <c r="M60" s="66" t="s">
+      <c r="L60" s="26"/>
+      <c r="M60" s="26" t="s">
         <v>459</v>
       </c>
-      <c r="N60" s="66" t="s">
+      <c r="N60" s="26" t="s">
         <v>1475</v>
       </c>
-      <c r="O60" s="66" t="s">
+      <c r="O60" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="P60" s="66" t="s">
+      <c r="P60" s="26" t="s">
         <v>1440</v>
       </c>
-      <c r="Q60" s="66" t="s">
+      <c r="Q60" s="26" t="s">
         <v>1478</v>
       </c>
-      <c r="R60" s="66"/>
+      <c r="R60" s="26"/>
       <c r="S60" s="27"/>
       <c r="V60" s="15"/>
     </row>
@@ -13966,49 +13937,49 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="60" t="s">
+      <c r="D61" s="51" t="s">
         <v>1244</v>
       </c>
-      <c r="E61" s="60" t="s">
+      <c r="E61" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F61" s="60" t="s">
+      <c r="F61" s="51" t="s">
         <v>1245</v>
       </c>
-      <c r="G61" s="62" t="s">
+      <c r="G61" s="53" t="s">
         <v>1246</v>
       </c>
-      <c r="H61" s="60" t="s">
+      <c r="H61" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="I61" s="60" t="s">
+      <c r="I61" s="51" t="s">
         <v>1247</v>
       </c>
-      <c r="J61" s="60" t="s">
+      <c r="J61" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="K61" s="60" t="s">
+      <c r="K61" s="51" t="s">
         <v>1248</v>
       </c>
-      <c r="L61" s="60" t="s">
+      <c r="L61" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="M61" s="60" t="s">
+      <c r="M61" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="N61" s="60" t="s">
+      <c r="N61" s="51" t="s">
         <v>1249</v>
       </c>
-      <c r="O61" s="60" t="s">
+      <c r="O61" s="51" t="s">
         <v>1250</v>
       </c>
-      <c r="P61" s="60" t="s">
+      <c r="P61" s="51" t="s">
         <v>1232</v>
       </c>
-      <c r="Q61" s="60" t="s">
+      <c r="Q61" s="51" t="s">
         <v>1251</v>
       </c>
-      <c r="R61" s="60" t="s">
+      <c r="R61" s="51" t="s">
         <v>31</v>
       </c>
       <c r="S61" s="29"/>
@@ -14016,109 +13987,109 @@
     </row>
     <row r="62" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="30"/>
-      <c r="D62" s="67" t="s">
+      <c r="D62" s="32" t="s">
         <v>1466</v>
       </c>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67" t="s">
+      <c r="E62" s="32"/>
+      <c r="F62" s="32" t="s">
         <v>1468</v>
       </c>
-      <c r="G62" s="67" t="s">
+      <c r="G62" s="32" t="s">
         <v>1470</v>
       </c>
-      <c r="H62" s="67" t="s">
+      <c r="H62" s="32" t="s">
         <v>1406</v>
       </c>
-      <c r="I62" s="67" t="s">
+      <c r="I62" s="32" t="s">
         <v>1472</v>
       </c>
-      <c r="J62" s="67" t="s">
+      <c r="J62" s="32" t="s">
         <v>1325</v>
       </c>
-      <c r="K62" s="67" t="s">
+      <c r="K62" s="32" t="s">
         <v>1474</v>
       </c>
-      <c r="L62" s="67"/>
-      <c r="M62" s="67" t="s">
+      <c r="L62" s="32"/>
+      <c r="M62" s="32" t="s">
         <v>1462</v>
       </c>
-      <c r="N62" s="67" t="s">
+      <c r="N62" s="32" t="s">
         <v>1476</v>
       </c>
-      <c r="O62" s="67" t="s">
+      <c r="O62" s="32" t="s">
         <v>1477</v>
       </c>
-      <c r="P62" s="67" t="s">
+      <c r="P62" s="32" t="s">
         <v>1441</v>
       </c>
-      <c r="Q62" s="67" t="s">
+      <c r="Q62" s="32" t="s">
         <v>1479</v>
       </c>
-      <c r="R62" s="67"/>
+      <c r="R62" s="32"/>
       <c r="S62" s="39"/>
       <c r="V62" s="15"/>
     </row>
     <row r="63" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="20"/>
       <c r="C63" s="42"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
-      <c r="O63" s="65"/>
-      <c r="P63" s="65"/>
-      <c r="Q63" s="65"/>
-      <c r="R63" s="65"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="22"/>
       <c r="V63" s="44"/>
     </row>
     <row r="64" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="25"/>
-      <c r="D64" s="66" t="s">
+      <c r="D64" s="26" t="s">
         <v>1480</v>
       </c>
-      <c r="E64" s="66" t="s">
+      <c r="E64" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="F64" s="66" t="s">
+      <c r="F64" s="26" t="s">
         <v>370</v>
       </c>
-      <c r="G64" s="66" t="s">
+      <c r="G64" s="26" t="s">
         <v>1484</v>
       </c>
-      <c r="H64" s="66" t="s">
+      <c r="H64" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="I64" s="66" t="s">
+      <c r="I64" s="26" t="s">
         <v>1486</v>
       </c>
-      <c r="J64" s="66"/>
-      <c r="K64" s="66" t="s">
+      <c r="J64" s="26"/>
+      <c r="K64" s="26" t="s">
         <v>1398</v>
       </c>
-      <c r="L64" s="66" t="s">
+      <c r="L64" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="M64" s="66" t="s">
+      <c r="M64" s="26" t="s">
         <v>1488</v>
       </c>
-      <c r="N64" s="66" t="s">
+      <c r="N64" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="O64" s="66" t="s">
+      <c r="O64" s="26" t="s">
         <v>1491</v>
       </c>
-      <c r="P64" s="66"/>
-      <c r="Q64" s="66" t="s">
+      <c r="P64" s="26"/>
+      <c r="Q64" s="26" t="s">
         <v>463</v>
       </c>
-      <c r="R64" s="66" t="s">
+      <c r="R64" s="26" t="s">
         <v>1494</v>
       </c>
       <c r="S64" s="27"/>
@@ -14129,49 +14100,49 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="60" t="s">
+      <c r="D65" s="51" t="s">
         <v>1252</v>
       </c>
-      <c r="E65" s="60" t="s">
+      <c r="E65" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="F65" s="60" t="s">
+      <c r="F65" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="G65" s="62" t="s">
+      <c r="G65" s="53" t="s">
         <v>1253</v>
       </c>
-      <c r="H65" s="60" t="s">
+      <c r="H65" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="I65" s="60" t="s">
+      <c r="I65" s="51" t="s">
         <v>1254</v>
       </c>
-      <c r="J65" s="60" t="s">
+      <c r="J65" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="K65" s="60" t="s">
+      <c r="K65" s="51" t="s">
         <v>1213</v>
       </c>
-      <c r="L65" s="60" t="s">
+      <c r="L65" s="51" t="s">
         <v>1242</v>
       </c>
-      <c r="M65" s="60" t="s">
+      <c r="M65" s="51" t="s">
         <v>1255</v>
       </c>
-      <c r="N65" s="60" t="s">
+      <c r="N65" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="O65" s="60" t="s">
+      <c r="O65" s="51" t="s">
         <v>1256</v>
       </c>
-      <c r="P65" s="60" t="s">
+      <c r="P65" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="Q65" s="60" t="s">
+      <c r="Q65" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="R65" s="60" t="s">
+      <c r="R65" s="51" t="s">
         <v>1257</v>
       </c>
       <c r="S65" s="29"/>
@@ -14179,45 +14150,45 @@
     </row>
     <row r="66" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="30"/>
-      <c r="D66" s="67" t="s">
+      <c r="D66" s="32" t="s">
         <v>1481</v>
       </c>
-      <c r="E66" s="67" t="s">
+      <c r="E66" s="32" t="s">
         <v>1482</v>
       </c>
-      <c r="F66" s="67" t="s">
+      <c r="F66" s="32" t="s">
         <v>1483</v>
       </c>
-      <c r="G66" s="67" t="s">
+      <c r="G66" s="32" t="s">
         <v>1485</v>
       </c>
-      <c r="H66" s="67" t="s">
+      <c r="H66" s="32" t="s">
         <v>1325</v>
       </c>
-      <c r="I66" s="67" t="s">
+      <c r="I66" s="32" t="s">
         <v>1487</v>
       </c>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67" t="s">
+      <c r="J66" s="32"/>
+      <c r="K66" s="32" t="s">
         <v>1399</v>
       </c>
-      <c r="L66" s="67" t="s">
+      <c r="L66" s="32" t="s">
         <v>1352</v>
       </c>
-      <c r="M66" s="67" t="s">
+      <c r="M66" s="32" t="s">
         <v>1489</v>
       </c>
-      <c r="N66" s="67" t="s">
+      <c r="N66" s="32" t="s">
         <v>1490</v>
       </c>
-      <c r="O66" s="67" t="s">
+      <c r="O66" s="32" t="s">
         <v>1492</v>
       </c>
-      <c r="P66" s="67"/>
-      <c r="Q66" s="67" t="s">
+      <c r="P66" s="32"/>
+      <c r="Q66" s="32" t="s">
         <v>1493</v>
       </c>
-      <c r="R66" s="67" t="s">
+      <c r="R66" s="32" t="s">
         <v>1495</v>
       </c>
       <c r="S66" s="39"/>
@@ -14226,64 +14197,64 @@
     <row r="67" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="20"/>
       <c r="C67" s="42"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="65"/>
-      <c r="I67" s="65"/>
-      <c r="J67" s="65"/>
-      <c r="K67" s="65"/>
-      <c r="L67" s="65"/>
-      <c r="M67" s="65"/>
-      <c r="N67" s="65"/>
-      <c r="O67" s="65"/>
-      <c r="P67" s="65"/>
-      <c r="Q67" s="65"/>
-      <c r="R67" s="65"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="22"/>
       <c r="V67" s="44"/>
     </row>
     <row r="68" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="25"/>
-      <c r="D68" s="66" t="s">
+      <c r="D68" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="E68" s="66" t="s">
+      <c r="E68" s="26" t="s">
         <v>489</v>
       </c>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66" t="s">
+      <c r="F68" s="26"/>
+      <c r="G68" s="26" t="s">
         <v>1498</v>
       </c>
-      <c r="H68" s="66" t="s">
+      <c r="H68" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I68" s="66" t="s">
+      <c r="I68" s="26" t="s">
         <v>1500</v>
       </c>
-      <c r="J68" s="66" t="s">
+      <c r="J68" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="K68" s="66" t="s">
+      <c r="K68" s="26" t="s">
         <v>1440</v>
       </c>
-      <c r="L68" s="66" t="s">
+      <c r="L68" s="26" t="s">
         <v>1502</v>
       </c>
-      <c r="M68" s="66"/>
-      <c r="N68" s="66" t="s">
+      <c r="M68" s="26"/>
+      <c r="N68" s="26" t="s">
         <v>1504</v>
       </c>
-      <c r="O68" s="66" t="s">
+      <c r="O68" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="P68" s="66" t="s">
+      <c r="P68" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="Q68" s="66" t="s">
+      <c r="Q68" s="26" t="s">
         <v>487</v>
       </c>
-      <c r="R68" s="66"/>
+      <c r="R68" s="26"/>
       <c r="S68" s="27"/>
       <c r="V68" s="15"/>
     </row>
@@ -14292,49 +14263,49 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="60" t="s">
+      <c r="D69" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="E69" s="60" t="s">
+      <c r="E69" s="51" t="s">
         <v>1258</v>
       </c>
-      <c r="F69" s="60" t="s">
+      <c r="F69" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="62" t="s">
+      <c r="G69" s="53" t="s">
         <v>1259</v>
       </c>
-      <c r="H69" s="60" t="s">
+      <c r="H69" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="I69" s="60" t="s">
+      <c r="I69" s="51" t="s">
         <v>1260</v>
       </c>
-      <c r="J69" s="60" t="s">
+      <c r="J69" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="K69" s="60" t="s">
+      <c r="K69" s="51" t="s">
         <v>1232</v>
       </c>
-      <c r="L69" s="60" t="s">
+      <c r="L69" s="51" t="s">
         <v>1261</v>
       </c>
-      <c r="M69" s="60" t="s">
+      <c r="M69" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="N69" s="60" t="s">
+      <c r="N69" s="51" t="s">
         <v>1262</v>
       </c>
-      <c r="O69" s="60" t="s">
+      <c r="O69" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="P69" s="60" t="s">
+      <c r="P69" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="Q69" s="60" t="s">
+      <c r="Q69" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="R69" s="60" t="s">
+      <c r="R69" s="51" t="s">
         <v>31</v>
       </c>
       <c r="S69" s="29"/>
@@ -14342,109 +14313,109 @@
     </row>
     <row r="70" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="30"/>
-      <c r="D70" s="67" t="s">
+      <c r="D70" s="32" t="s">
         <v>1496</v>
       </c>
-      <c r="E70" s="67" t="s">
+      <c r="E70" s="32" t="s">
         <v>1497</v>
       </c>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67" t="s">
+      <c r="F70" s="32"/>
+      <c r="G70" s="32" t="s">
         <v>1499</v>
       </c>
-      <c r="H70" s="67" t="s">
+      <c r="H70" s="32" t="s">
         <v>1395</v>
       </c>
-      <c r="I70" s="67" t="s">
+      <c r="I70" s="32" t="s">
         <v>1501</v>
       </c>
-      <c r="J70" s="67" t="s">
+      <c r="J70" s="32" t="s">
         <v>1329</v>
       </c>
-      <c r="K70" s="67" t="s">
+      <c r="K70" s="32" t="s">
         <v>1441</v>
       </c>
-      <c r="L70" s="67" t="s">
+      <c r="L70" s="32" t="s">
         <v>1503</v>
       </c>
-      <c r="M70" s="67"/>
-      <c r="N70" s="67" t="s">
+      <c r="M70" s="32"/>
+      <c r="N70" s="32" t="s">
         <v>1505</v>
       </c>
-      <c r="O70" s="67" t="s">
+      <c r="O70" s="32" t="s">
         <v>1506</v>
       </c>
-      <c r="P70" s="67" t="s">
+      <c r="P70" s="32" t="s">
         <v>1329</v>
       </c>
-      <c r="Q70" s="67" t="s">
+      <c r="Q70" s="32" t="s">
         <v>1507</v>
       </c>
-      <c r="R70" s="67"/>
+      <c r="R70" s="32"/>
       <c r="S70" s="39"/>
       <c r="V70" s="15"/>
     </row>
     <row r="71" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="20"/>
       <c r="C71" s="42"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="65"/>
-      <c r="K71" s="65"/>
-      <c r="L71" s="65"/>
-      <c r="M71" s="65"/>
-      <c r="N71" s="65"/>
-      <c r="O71" s="65"/>
-      <c r="P71" s="65"/>
-      <c r="Q71" s="65"/>
-      <c r="R71" s="65"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
+      <c r="R71" s="22"/>
       <c r="V71" s="44"/>
     </row>
     <row r="72" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="25"/>
-      <c r="D72" s="66" t="s">
+      <c r="D72" s="26" t="s">
         <v>1375</v>
       </c>
-      <c r="E72" s="66" t="s">
+      <c r="E72" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="F72" s="66" t="s">
+      <c r="F72" s="26" t="s">
         <v>1509</v>
       </c>
-      <c r="G72" s="66" t="s">
+      <c r="G72" s="26" t="s">
         <v>1410</v>
       </c>
-      <c r="H72" s="66"/>
-      <c r="I72" s="66" t="s">
+      <c r="H72" s="26"/>
+      <c r="I72" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="J72" s="66" t="s">
+      <c r="J72" s="26" t="s">
         <v>1511</v>
       </c>
-      <c r="K72" s="66" t="s">
+      <c r="K72" s="26" t="s">
         <v>1513</v>
       </c>
-      <c r="L72" s="66" t="s">
+      <c r="L72" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="M72" s="66" t="s">
+      <c r="M72" s="26" t="s">
         <v>1515</v>
       </c>
-      <c r="N72" s="66" t="s">
+      <c r="N72" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="O72" s="66"/>
-      <c r="P72" s="66" t="s">
+      <c r="O72" s="26"/>
+      <c r="P72" s="26" t="s">
         <v>1517</v>
       </c>
-      <c r="Q72" s="66" t="s">
+      <c r="Q72" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="R72" s="66" t="s">
+      <c r="R72" s="26" t="s">
         <v>1440</v>
       </c>
       <c r="S72" s="27"/>
@@ -14455,49 +14426,49 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="60" t="s">
+      <c r="D73" s="51" t="s">
         <v>1263</v>
       </c>
-      <c r="E73" s="60" t="s">
+      <c r="E73" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="F73" s="60" t="s">
+      <c r="F73" s="51" t="s">
         <v>1264</v>
       </c>
-      <c r="G73" s="60" t="s">
+      <c r="G73" s="51" t="s">
         <v>1219</v>
       </c>
-      <c r="H73" s="60" t="s">
+      <c r="H73" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I73" s="60" t="s">
+      <c r="I73" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="J73" s="60" t="s">
+      <c r="J73" s="51" t="s">
         <v>1265</v>
       </c>
-      <c r="K73" s="60" t="s">
+      <c r="K73" s="51" t="s">
         <v>1266</v>
       </c>
-      <c r="L73" s="60" t="s">
+      <c r="L73" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="M73" s="60" t="s">
+      <c r="M73" s="51" t="s">
         <v>1267</v>
       </c>
-      <c r="N73" s="60" t="s">
+      <c r="N73" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="O73" s="60" t="s">
+      <c r="O73" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="P73" s="60" t="s">
+      <c r="P73" s="51" t="s">
         <v>1268</v>
       </c>
-      <c r="Q73" s="60" t="s">
+      <c r="Q73" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="R73" s="60" t="s">
+      <c r="R73" s="51" t="s">
         <v>1232</v>
       </c>
       <c r="S73" s="29"/>
@@ -14505,45 +14476,45 @@
     </row>
     <row r="74" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="30"/>
-      <c r="D74" s="67" t="s">
+      <c r="D74" s="32" t="s">
         <v>1376</v>
       </c>
-      <c r="E74" s="67" t="s">
+      <c r="E74" s="32" t="s">
         <v>1508</v>
       </c>
-      <c r="F74" s="67" t="s">
+      <c r="F74" s="32" t="s">
         <v>1510</v>
       </c>
-      <c r="G74" s="67" t="s">
+      <c r="G74" s="32" t="s">
         <v>1411</v>
       </c>
-      <c r="H74" s="67"/>
-      <c r="I74" s="67" t="s">
+      <c r="H74" s="32"/>
+      <c r="I74" s="32" t="s">
         <v>1496</v>
       </c>
-      <c r="J74" s="67" t="s">
+      <c r="J74" s="32" t="s">
         <v>1512</v>
       </c>
-      <c r="K74" s="67" t="s">
+      <c r="K74" s="32" t="s">
         <v>1514</v>
       </c>
-      <c r="L74" s="67" t="s">
+      <c r="L74" s="32" t="s">
         <v>1325</v>
       </c>
-      <c r="M74" s="67" t="s">
+      <c r="M74" s="32" t="s">
         <v>1516</v>
       </c>
-      <c r="N74" s="67" t="s">
+      <c r="N74" s="32" t="s">
         <v>1346</v>
       </c>
-      <c r="O74" s="67"/>
-      <c r="P74" s="67" t="s">
+      <c r="O74" s="32"/>
+      <c r="P74" s="32" t="s">
         <v>1518</v>
       </c>
-      <c r="Q74" s="67" t="s">
+      <c r="Q74" s="32" t="s">
         <v>1395</v>
       </c>
-      <c r="R74" s="67" t="s">
+      <c r="R74" s="32" t="s">
         <v>1441</v>
       </c>
       <c r="S74" s="39"/>
@@ -14552,64 +14523,64 @@
     <row r="75" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="20"/>
       <c r="C75" s="42"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="65"/>
-      <c r="K75" s="65"/>
-      <c r="L75" s="65"/>
-      <c r="M75" s="65"/>
-      <c r="N75" s="65"/>
-      <c r="O75" s="65"/>
-      <c r="P75" s="65"/>
-      <c r="Q75" s="65"/>
-      <c r="R75" s="65"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22"/>
+      <c r="R75" s="22"/>
       <c r="V75" s="44"/>
     </row>
     <row r="76" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="25"/>
-      <c r="D76" s="66" t="s">
+      <c r="D76" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="E76" s="66" t="s">
+      <c r="E76" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="F76" s="66" t="s">
+      <c r="F76" s="26" t="s">
         <v>1519</v>
       </c>
-      <c r="G76" s="66"/>
-      <c r="H76" s="66" t="s">
+      <c r="G76" s="26"/>
+      <c r="H76" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="I76" s="66" t="s">
+      <c r="I76" s="26" t="s">
         <v>1521</v>
       </c>
-      <c r="J76" s="66" t="s">
+      <c r="J76" s="26" t="s">
         <v>1339</v>
       </c>
-      <c r="K76" s="66" t="s">
+      <c r="K76" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="L76" s="66"/>
-      <c r="M76" s="66" t="s">
+      <c r="L76" s="26"/>
+      <c r="M76" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="N76" s="66" t="s">
+      <c r="N76" s="26" t="s">
         <v>1525</v>
       </c>
-      <c r="O76" s="66" t="s">
+      <c r="O76" s="26" t="s">
         <v>1527</v>
       </c>
-      <c r="P76" s="66" t="s">
+      <c r="P76" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="Q76" s="66" t="s">
+      <c r="Q76" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="R76" s="66"/>
+      <c r="R76" s="26"/>
       <c r="S76" s="27"/>
       <c r="V76" s="15"/>
     </row>
@@ -14618,49 +14589,49 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="60" t="s">
+      <c r="D77" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="E77" s="60" t="s">
+      <c r="E77" s="51" t="s">
         <v>1269</v>
       </c>
-      <c r="F77" s="60" t="s">
+      <c r="F77" s="51" t="s">
         <v>1270</v>
       </c>
-      <c r="G77" s="62" t="s">
+      <c r="G77" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="H77" s="60" t="s">
+      <c r="H77" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="I77" s="60" t="s">
+      <c r="I77" s="51" t="s">
         <v>1271</v>
       </c>
-      <c r="J77" s="60" t="s">
+      <c r="J77" s="51" t="s">
         <v>1185</v>
       </c>
-      <c r="K77" s="60" t="s">
+      <c r="K77" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="L77" s="60" t="s">
+      <c r="L77" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M77" s="60" t="s">
+      <c r="M77" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="N77" s="60" t="s">
+      <c r="N77" s="51" t="s">
         <v>1272</v>
       </c>
-      <c r="O77" s="60" t="s">
+      <c r="O77" s="51" t="s">
         <v>1273</v>
       </c>
-      <c r="P77" s="60" t="s">
+      <c r="P77" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="Q77" s="60" t="s">
+      <c r="Q77" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="R77" s="60" t="s">
+      <c r="R77" s="51" t="s">
         <v>38</v>
       </c>
       <c r="S77" s="29"/>
@@ -14668,109 +14639,109 @@
     </row>
     <row r="78" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="30"/>
-      <c r="D78" s="67" t="s">
+      <c r="D78" s="32" t="s">
         <v>1325</v>
       </c>
-      <c r="E78" s="67" t="s">
+      <c r="E78" s="32" t="s">
         <v>1477</v>
       </c>
-      <c r="F78" s="67" t="s">
+      <c r="F78" s="32" t="s">
         <v>1520</v>
       </c>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67" t="s">
+      <c r="G78" s="32"/>
+      <c r="H78" s="32" t="s">
         <v>1415</v>
       </c>
-      <c r="I78" s="67" t="s">
+      <c r="I78" s="32" t="s">
         <v>1522</v>
       </c>
-      <c r="J78" s="67" t="s">
+      <c r="J78" s="32" t="s">
         <v>1340</v>
       </c>
-      <c r="K78" s="67" t="s">
+      <c r="K78" s="32" t="s">
         <v>1523</v>
       </c>
-      <c r="L78" s="67"/>
-      <c r="M78" s="67" t="s">
+      <c r="L78" s="32"/>
+      <c r="M78" s="32" t="s">
         <v>1524</v>
       </c>
-      <c r="N78" s="67" t="s">
+      <c r="N78" s="32" t="s">
         <v>1526</v>
       </c>
-      <c r="O78" s="67" t="s">
+      <c r="O78" s="32" t="s">
         <v>1528</v>
       </c>
-      <c r="P78" s="67" t="s">
+      <c r="P78" s="32" t="s">
         <v>1325</v>
       </c>
-      <c r="Q78" s="67" t="s">
+      <c r="Q78" s="32" t="s">
         <v>1383</v>
       </c>
-      <c r="R78" s="67"/>
+      <c r="R78" s="32"/>
       <c r="S78" s="39"/>
       <c r="V78" s="15"/>
     </row>
     <row r="79" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="20"/>
       <c r="C79" s="42"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="65"/>
-      <c r="J79" s="65"/>
-      <c r="K79" s="65"/>
-      <c r="L79" s="65"/>
-      <c r="M79" s="65"/>
-      <c r="N79" s="65"/>
-      <c r="O79" s="65"/>
-      <c r="P79" s="65"/>
-      <c r="Q79" s="65"/>
-      <c r="R79" s="65"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="22"/>
+      <c r="P79" s="22"/>
+      <c r="Q79" s="22"/>
+      <c r="R79" s="22"/>
       <c r="V79" s="44"/>
     </row>
     <row r="80" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="25"/>
-      <c r="D80" s="66" t="s">
+      <c r="D80" s="26" t="s">
         <v>1529</v>
       </c>
-      <c r="E80" s="66" t="s">
+      <c r="E80" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="F80" s="66" t="s">
+      <c r="F80" s="26" t="s">
         <v>1440</v>
       </c>
-      <c r="G80" s="66" t="s">
+      <c r="G80" s="26" t="s">
         <v>1500</v>
       </c>
-      <c r="H80" s="66"/>
-      <c r="I80" s="66" t="s">
+      <c r="H80" s="26"/>
+      <c r="I80" s="26" t="s">
         <v>1432</v>
       </c>
-      <c r="J80" s="66" t="s">
+      <c r="J80" s="26" t="s">
         <v>1425</v>
       </c>
-      <c r="K80" s="66" t="s">
+      <c r="K80" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="L80" s="66" t="s">
+      <c r="L80" s="26" t="s">
         <v>1531</v>
       </c>
-      <c r="M80" s="66"/>
-      <c r="N80" s="66" t="s">
+      <c r="M80" s="26"/>
+      <c r="N80" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="O80" s="66" t="s">
+      <c r="O80" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="P80" s="66" t="s">
+      <c r="P80" s="26" t="s">
         <v>1533</v>
       </c>
-      <c r="Q80" s="66" t="s">
+      <c r="Q80" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="R80" s="66"/>
+      <c r="R80" s="26"/>
       <c r="S80" s="27"/>
       <c r="V80" s="15"/>
     </row>
@@ -14779,49 +14750,49 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="60" t="s">
+      <c r="D81" s="51" t="s">
         <v>1274</v>
       </c>
-      <c r="E81" s="60" t="s">
+      <c r="E81" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F81" s="60" t="s">
+      <c r="F81" s="51" t="s">
         <v>1232</v>
       </c>
-      <c r="G81" s="60" t="s">
+      <c r="G81" s="51" t="s">
         <v>1260</v>
       </c>
-      <c r="H81" s="60" t="s">
+      <c r="H81" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I81" s="60" t="s">
+      <c r="I81" s="51" t="s">
         <v>1228</v>
       </c>
-      <c r="J81" s="60" t="s">
+      <c r="J81" s="51" t="s">
         <v>1225</v>
       </c>
-      <c r="K81" s="60" t="s">
+      <c r="K81" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="L81" s="60" t="s">
+      <c r="L81" s="51" t="s">
         <v>1275</v>
       </c>
-      <c r="M81" s="60" t="s">
+      <c r="M81" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="N81" s="60" t="s">
+      <c r="N81" s="51" t="s">
         <v>1276</v>
       </c>
-      <c r="O81" s="60" t="s">
+      <c r="O81" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="P81" s="60" t="s">
+      <c r="P81" s="51" t="s">
         <v>1277</v>
       </c>
-      <c r="Q81" s="60" t="s">
+      <c r="Q81" s="51" t="s">
         <v>1278</v>
       </c>
-      <c r="R81" s="60" t="s">
+      <c r="R81" s="51" t="s">
         <v>31</v>
       </c>
       <c r="S81" s="29"/>
@@ -14829,111 +14800,111 @@
     </row>
     <row r="82" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="30"/>
-      <c r="D82" s="67" t="s">
+      <c r="D82" s="32" t="s">
         <v>1530</v>
       </c>
-      <c r="E82" s="67" t="s">
+      <c r="E82" s="32" t="s">
         <v>1325</v>
       </c>
-      <c r="F82" s="67" t="s">
+      <c r="F82" s="32" t="s">
         <v>1441</v>
       </c>
-      <c r="G82" s="67" t="s">
+      <c r="G82" s="32" t="s">
         <v>1501</v>
       </c>
-      <c r="H82" s="67"/>
-      <c r="I82" s="67" t="s">
+      <c r="H82" s="32"/>
+      <c r="I82" s="32" t="s">
         <v>1433</v>
       </c>
-      <c r="J82" s="67" t="s">
+      <c r="J82" s="32" t="s">
         <v>1426</v>
       </c>
-      <c r="K82" s="67" t="s">
+      <c r="K82" s="32" t="s">
         <v>1325</v>
       </c>
-      <c r="L82" s="67" t="s">
+      <c r="L82" s="32" t="s">
         <v>1532</v>
       </c>
-      <c r="M82" s="67"/>
-      <c r="N82" s="67" t="s">
+      <c r="M82" s="32"/>
+      <c r="N82" s="32" t="s">
         <v>1383</v>
       </c>
-      <c r="O82" s="67" t="s">
+      <c r="O82" s="32" t="s">
         <v>1384</v>
       </c>
-      <c r="P82" s="67" t="s">
+      <c r="P82" s="32" t="s">
         <v>1534</v>
       </c>
-      <c r="Q82" s="67" t="s">
+      <c r="Q82" s="32" t="s">
         <v>1535</v>
       </c>
-      <c r="R82" s="67"/>
+      <c r="R82" s="32"/>
       <c r="S82" s="39"/>
       <c r="V82" s="15"/>
     </row>
     <row r="83" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="20"/>
       <c r="C83" s="42"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="65"/>
-      <c r="I83" s="65"/>
-      <c r="J83" s="65"/>
-      <c r="K83" s="65"/>
-      <c r="L83" s="65"/>
-      <c r="M83" s="65"/>
-      <c r="N83" s="65"/>
-      <c r="O83" s="65"/>
-      <c r="P83" s="65"/>
-      <c r="Q83" s="65"/>
-      <c r="R83" s="65"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="22"/>
       <c r="V83" s="44"/>
     </row>
     <row r="84" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="25"/>
-      <c r="D84" s="66" t="s">
+      <c r="D84" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="E84" s="66" t="s">
+      <c r="E84" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="F84" s="66" t="s">
+      <c r="F84" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="G84" s="66" t="s">
+      <c r="G84" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="H84" s="66" t="s">
+      <c r="H84" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="I84" s="66" t="s">
+      <c r="I84" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="J84" s="66" t="s">
+      <c r="J84" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="K84" s="66" t="s">
+      <c r="K84" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="L84" s="66"/>
-      <c r="M84" s="66" t="s">
+      <c r="L84" s="26"/>
+      <c r="M84" s="26" t="s">
         <v>1538</v>
       </c>
-      <c r="N84" s="66" t="s">
+      <c r="N84" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="O84" s="66" t="s">
+      <c r="O84" s="26" t="s">
         <v>1540</v>
       </c>
-      <c r="P84" s="66" t="s">
+      <c r="P84" s="26" t="s">
         <v>1521</v>
       </c>
-      <c r="Q84" s="66" t="s">
+      <c r="Q84" s="26" t="s">
         <v>1542</v>
       </c>
-      <c r="R84" s="66"/>
+      <c r="R84" s="26"/>
       <c r="S84" s="27"/>
       <c r="V84" s="15"/>
     </row>
@@ -14942,49 +14913,49 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="60" t="s">
+      <c r="D85" s="51" t="s">
         <v>1279</v>
       </c>
-      <c r="E85" s="60" t="s">
+      <c r="E85" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="F85" s="60" t="s">
+      <c r="F85" s="51" t="s">
         <v>1280</v>
       </c>
-      <c r="G85" s="62" t="s">
+      <c r="G85" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="H85" s="60" t="s">
+      <c r="H85" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="I85" s="60" t="s">
+      <c r="I85" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="J85" s="60" t="s">
+      <c r="J85" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="K85" s="60" t="s">
+      <c r="K85" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="L85" s="60" t="s">
+      <c r="L85" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="M85" s="60" t="s">
+      <c r="M85" s="51" t="s">
         <v>1281</v>
       </c>
-      <c r="N85" s="60" t="s">
+      <c r="N85" s="51" t="s">
         <v>1282</v>
       </c>
-      <c r="O85" s="60" t="s">
+      <c r="O85" s="51" t="s">
         <v>1283</v>
       </c>
-      <c r="P85" s="60" t="s">
+      <c r="P85" s="51" t="s">
         <v>1271</v>
       </c>
-      <c r="Q85" s="60" t="s">
+      <c r="Q85" s="51" t="s">
         <v>1284</v>
       </c>
-      <c r="R85" s="60" t="s">
+      <c r="R85" s="51" t="s">
         <v>31</v>
       </c>
       <c r="S85" s="29"/>
@@ -14992,109 +14963,109 @@
     </row>
     <row r="86" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="30"/>
-      <c r="D86" s="67" t="s">
+      <c r="D86" s="32" t="s">
         <v>1442</v>
       </c>
-      <c r="E86" s="67" t="s">
+      <c r="E86" s="32" t="s">
         <v>1496</v>
       </c>
-      <c r="F86" s="67" t="s">
+      <c r="F86" s="32" t="s">
         <v>1536</v>
       </c>
-      <c r="G86" s="67" t="s">
+      <c r="G86" s="32" t="s">
         <v>1496</v>
       </c>
-      <c r="H86" s="67" t="s">
+      <c r="H86" s="32" t="s">
         <v>1383</v>
       </c>
-      <c r="I86" s="67" t="s">
+      <c r="I86" s="32" t="s">
         <v>1325</v>
       </c>
-      <c r="J86" s="67" t="s">
+      <c r="J86" s="32" t="s">
         <v>1537</v>
       </c>
-      <c r="K86" s="67" t="s">
+      <c r="K86" s="32" t="s">
         <v>1446</v>
       </c>
-      <c r="L86" s="67"/>
-      <c r="M86" s="67" t="s">
+      <c r="L86" s="32"/>
+      <c r="M86" s="32" t="s">
         <v>1539</v>
       </c>
-      <c r="N86" s="67" t="s">
+      <c r="N86" s="32" t="s">
         <v>1336</v>
       </c>
-      <c r="O86" s="67" t="s">
+      <c r="O86" s="32" t="s">
         <v>1541</v>
       </c>
-      <c r="P86" s="67" t="s">
+      <c r="P86" s="32" t="s">
         <v>1522</v>
       </c>
-      <c r="Q86" s="67" t="s">
+      <c r="Q86" s="32" t="s">
         <v>1543</v>
       </c>
-      <c r="R86" s="67"/>
+      <c r="R86" s="32"/>
       <c r="S86" s="39"/>
       <c r="V86" s="15"/>
     </row>
     <row r="87" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B87" s="20"/>
       <c r="C87" s="42"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="65"/>
-      <c r="H87" s="65"/>
-      <c r="I87" s="65"/>
-      <c r="J87" s="65"/>
-      <c r="K87" s="65"/>
-      <c r="L87" s="65"/>
-      <c r="M87" s="65"/>
-      <c r="N87" s="65"/>
-      <c r="O87" s="65"/>
-      <c r="P87" s="65"/>
-      <c r="Q87" s="65"/>
-      <c r="R87" s="65"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="22"/>
+      <c r="P87" s="22"/>
+      <c r="Q87" s="22"/>
+      <c r="R87" s="22"/>
       <c r="V87" s="44"/>
     </row>
     <row r="88" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="25"/>
-      <c r="D88" s="66" t="s">
+      <c r="D88" s="26" t="s">
         <v>1515</v>
       </c>
-      <c r="E88" s="66" t="s">
+      <c r="E88" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F88" s="66" t="s">
+      <c r="F88" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="G88" s="66" t="s">
+      <c r="G88" s="26" t="s">
         <v>1544</v>
       </c>
-      <c r="H88" s="66"/>
-      <c r="I88" s="66" t="s">
+      <c r="H88" s="26"/>
+      <c r="I88" s="26" t="s">
         <v>484</v>
       </c>
-      <c r="J88" s="66" t="s">
+      <c r="J88" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="K88" s="66" t="s">
+      <c r="K88" s="26" t="s">
         <v>1547</v>
       </c>
-      <c r="L88" s="66"/>
-      <c r="M88" s="66"/>
-      <c r="N88" s="66" t="s">
+      <c r="L88" s="26"/>
+      <c r="M88" s="26"/>
+      <c r="N88" s="26" t="s">
         <v>1549</v>
       </c>
-      <c r="O88" s="66" t="s">
+      <c r="O88" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="P88" s="66" t="s">
+      <c r="P88" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="Q88" s="66" t="s">
+      <c r="Q88" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="R88" s="66" t="s">
+      <c r="R88" s="26" t="s">
         <v>353</v>
       </c>
       <c r="S88" s="27"/>
@@ -15105,49 +15076,49 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="60" t="s">
+      <c r="D89" s="51" t="s">
         <v>1285</v>
       </c>
-      <c r="E89" s="60" t="s">
+      <c r="E89" s="51" t="s">
         <v>1286</v>
       </c>
-      <c r="F89" s="60" t="s">
+      <c r="F89" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="G89" s="60" t="s">
+      <c r="G89" s="51" t="s">
         <v>1287</v>
       </c>
-      <c r="H89" s="60" t="s">
+      <c r="H89" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="I89" s="60" t="s">
+      <c r="I89" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="J89" s="60" t="s">
+      <c r="J89" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="K89" s="60" t="s">
+      <c r="K89" s="51" t="s">
         <v>1288</v>
       </c>
-      <c r="L89" s="60" t="s">
+      <c r="L89" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="M89" s="60" t="s">
+      <c r="M89" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="N89" s="60" t="s">
+      <c r="N89" s="51" t="s">
         <v>1289</v>
       </c>
-      <c r="O89" s="60" t="s">
+      <c r="O89" s="51" t="s">
         <v>1290</v>
       </c>
-      <c r="P89" s="60" t="s">
+      <c r="P89" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="Q89" s="60" t="s">
+      <c r="Q89" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="R89" s="60" t="s">
+      <c r="R89" s="51" t="s">
         <v>159</v>
       </c>
       <c r="S89" s="29"/>
@@ -15155,43 +15126,43 @@
     </row>
     <row r="90" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="30"/>
-      <c r="D90" s="67" t="s">
+      <c r="D90" s="32" t="s">
         <v>1516</v>
       </c>
-      <c r="E90" s="67" t="s">
+      <c r="E90" s="32" t="s">
         <v>1395</v>
       </c>
-      <c r="F90" s="67" t="s">
+      <c r="F90" s="32" t="s">
         <v>1329</v>
       </c>
-      <c r="G90" s="67" t="s">
+      <c r="G90" s="32" t="s">
         <v>1545</v>
       </c>
-      <c r="H90" s="67"/>
-      <c r="I90" s="67" t="s">
+      <c r="H90" s="32"/>
+      <c r="I90" s="32" t="s">
         <v>1546</v>
       </c>
-      <c r="J90" s="67" t="s">
+      <c r="J90" s="32" t="s">
         <v>1457</v>
       </c>
-      <c r="K90" s="67" t="s">
+      <c r="K90" s="32" t="s">
         <v>1548</v>
       </c>
-      <c r="L90" s="67"/>
-      <c r="M90" s="67"/>
-      <c r="N90" s="67" t="s">
+      <c r="L90" s="32"/>
+      <c r="M90" s="32"/>
+      <c r="N90" s="32" t="s">
         <v>1550</v>
       </c>
-      <c r="O90" s="67" t="s">
+      <c r="O90" s="32" t="s">
         <v>1551</v>
       </c>
-      <c r="P90" s="67" t="s">
+      <c r="P90" s="32" t="s">
         <v>1409</v>
       </c>
-      <c r="Q90" s="67" t="s">
+      <c r="Q90" s="32" t="s">
         <v>1431</v>
       </c>
-      <c r="R90" s="67" t="s">
+      <c r="R90" s="32" t="s">
         <v>1383</v>
       </c>
       <c r="S90" s="39"/>
@@ -15200,14 +15171,14 @@
     <row r="91" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B91" s="20"/>
       <c r="C91" s="42"/>
-      <c r="D91" s="65"/>
-      <c r="E91" s="65"/>
-      <c r="F91" s="65"/>
-      <c r="G91" s="65"/>
-      <c r="H91" s="65"/>
-      <c r="I91" s="65"/>
-      <c r="J91" s="65"/>
-      <c r="K91" s="65"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
       <c r="L91" s="22"/>
       <c r="M91" s="22"/>
       <c r="N91" s="22"/>
@@ -15219,22 +15190,22 @@
     </row>
     <row r="92" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="25"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="66" t="s">
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26" t="s">
         <v>1552</v>
       </c>
-      <c r="G92" s="66" t="s">
+      <c r="G92" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="H92" s="66" t="s">
+      <c r="H92" s="26" t="s">
         <v>1554</v>
       </c>
-      <c r="I92" s="66" t="s">
+      <c r="I92" s="26" t="s">
         <v>486</v>
       </c>
-      <c r="J92" s="66"/>
-      <c r="K92" s="66"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
       <c r="L92" s="26"/>
       <c r="M92" s="26"/>
       <c r="N92" s="26"/>
@@ -15250,60 +15221,60 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="60" t="s">
+      <c r="D93" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E93" s="60" t="s">
+      <c r="E93" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="F93" s="60" t="s">
+      <c r="F93" s="51" t="s">
         <v>1291</v>
       </c>
-      <c r="G93" s="60" t="s">
+      <c r="G93" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="H93" s="60" t="s">
+      <c r="H93" s="51" t="s">
         <v>1292</v>
       </c>
-      <c r="I93" s="60" t="s">
+      <c r="I93" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="J93" s="60" t="s">
+      <c r="J93" s="51" t="s">
         <v>284</v>
       </c>
-      <c r="K93" s="60" t="str">
+      <c r="K93" s="51" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="L93" s="60"/>
-      <c r="M93" s="60"/>
-      <c r="N93" s="60"/>
-      <c r="O93" s="60"/>
-      <c r="P93" s="60"/>
-      <c r="Q93" s="60"/>
-      <c r="R93" s="60"/>
+      <c r="L93" s="51"/>
+      <c r="M93" s="51"/>
+      <c r="N93" s="51"/>
+      <c r="O93" s="51"/>
+      <c r="P93" s="51"/>
+      <c r="Q93" s="51"/>
+      <c r="R93" s="51"/>
       <c r="S93" s="29"/>
       <c r="V93" s="15"/>
     </row>
     <row r="94" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="30"/>
-      <c r="D94" s="67"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67" t="s">
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32" t="s">
         <v>1553</v>
       </c>
-      <c r="G94" s="67" t="s">
+      <c r="G94" s="32" t="s">
         <v>1496</v>
       </c>
-      <c r="H94" s="67" t="s">
+      <c r="H94" s="32" t="s">
         <v>1555</v>
       </c>
-      <c r="I94" s="67" t="s">
+      <c r="I94" s="32" t="s">
         <v>1556</v>
       </c>
-      <c r="J94" s="67"/>
-      <c r="K94" s="67"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="32"/>
       <c r="L94" s="32"/>
       <c r="M94" s="32"/>
       <c r="N94" s="32"/>
@@ -15317,7 +15288,7 @@
     <row r="95" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B95" s="20"/>
       <c r="C95" s="42"/>
-      <c r="D95" s="65"/>
+      <c r="D95" s="22"/>
       <c r="E95" s="22"/>
       <c r="F95" s="22"/>
       <c r="G95" s="22"/>
@@ -15336,7 +15307,7 @@
     </row>
     <row r="96" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="25"/>
-      <c r="D96" s="66"/>
+      <c r="D96" s="26"/>
       <c r="E96" s="26"/>
       <c r="F96" s="26"/>
       <c r="G96" s="26"/>
@@ -15359,31 +15330,31 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="60" t="str">
+      <c r="D97" s="51" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="E97" s="60"/>
-      <c r="F97" s="60"/>
-      <c r="G97" s="62"/>
-      <c r="H97" s="60"/>
-      <c r="I97" s="60"/>
-      <c r="J97" s="60"/>
-      <c r="K97" s="60"/>
-      <c r="L97" s="60"/>
-      <c r="M97" s="60"/>
-      <c r="N97" s="60"/>
-      <c r="O97" s="60"/>
-      <c r="P97" s="60"/>
-      <c r="Q97" s="60"/>
-      <c r="R97" s="60"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="51"/>
+      <c r="J97" s="51"/>
+      <c r="K97" s="51"/>
+      <c r="L97" s="51"/>
+      <c r="M97" s="51"/>
+      <c r="N97" s="51"/>
+      <c r="O97" s="51"/>
+      <c r="P97" s="51"/>
+      <c r="Q97" s="51"/>
+      <c r="R97" s="51"/>
       <c r="S97" s="29"/>
       <c r="V97" s="15"/>
     </row>
     <row r="98" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="30"/>
-      <c r="D98" s="67"/>
+      <c r="D98" s="32"/>
       <c r="E98" s="32"/>
       <c r="F98" s="32"/>
       <c r="G98" s="32"/>
@@ -15404,64 +15375,64 @@
     <row r="99" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B99" s="20"/>
       <c r="C99" s="42"/>
-      <c r="D99" s="65"/>
-      <c r="E99" s="65"/>
-      <c r="F99" s="65"/>
-      <c r="G99" s="65"/>
-      <c r="H99" s="65"/>
-      <c r="I99" s="65"/>
-      <c r="J99" s="65"/>
-      <c r="K99" s="65"/>
-      <c r="L99" s="65"/>
-      <c r="M99" s="65"/>
-      <c r="N99" s="65"/>
-      <c r="O99" s="65"/>
-      <c r="P99" s="65"/>
-      <c r="Q99" s="65"/>
-      <c r="R99" s="65"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
+      <c r="Q99" s="22"/>
+      <c r="R99" s="22"/>
       <c r="V99" s="44"/>
     </row>
     <row r="100" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="25"/>
-      <c r="D100" s="66" t="s">
+      <c r="D100" s="26" t="s">
         <v>1557</v>
       </c>
-      <c r="E100" s="66" t="s">
+      <c r="E100" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="F100" s="66" t="s">
+      <c r="F100" s="26" t="s">
         <v>1560</v>
       </c>
-      <c r="G100" s="66" t="s">
+      <c r="G100" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="H100" s="66" t="s">
+      <c r="H100" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="I100" s="66" t="s">
+      <c r="I100" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="J100" s="66" t="s">
+      <c r="J100" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="K100" s="66" t="s">
+      <c r="K100" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="L100" s="66"/>
-      <c r="M100" s="66" t="s">
+      <c r="L100" s="26"/>
+      <c r="M100" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="N100" s="66" t="s">
+      <c r="N100" s="26" t="s">
         <v>1563</v>
       </c>
-      <c r="O100" s="66" t="s">
+      <c r="O100" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="P100" s="66" t="s">
+      <c r="P100" s="26" t="s">
         <v>1565</v>
       </c>
-      <c r="Q100" s="66"/>
-      <c r="R100" s="66" t="s">
+      <c r="Q100" s="26"/>
+      <c r="R100" s="26" t="s">
         <v>1567</v>
       </c>
       <c r="S100" s="27"/>
@@ -15472,49 +15443,49 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="60" t="s">
+      <c r="D101" s="51" t="s">
         <v>1293</v>
       </c>
-      <c r="E101" s="60" t="s">
+      <c r="E101" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="F101" s="60" t="s">
+      <c r="F101" s="51" t="s">
         <v>1294</v>
       </c>
-      <c r="G101" s="60" t="s">
+      <c r="G101" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="H101" s="60" t="s">
+      <c r="H101" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="I101" s="60" t="s">
+      <c r="I101" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="J101" s="60" t="s">
+      <c r="J101" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="K101" s="60" t="s">
+      <c r="K101" s="51" t="s">
         <v>1295</v>
       </c>
-      <c r="L101" s="60" t="s">
+      <c r="L101" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M101" s="60" t="s">
+      <c r="M101" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="N101" s="60" t="s">
+      <c r="N101" s="51" t="s">
         <v>1296</v>
       </c>
-      <c r="O101" s="60" t="s">
+      <c r="O101" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="P101" s="60" t="s">
+      <c r="P101" s="51" t="s">
         <v>1297</v>
       </c>
-      <c r="Q101" s="60" t="s">
+      <c r="Q101" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="R101" s="60" t="s">
+      <c r="R101" s="51" t="s">
         <v>1298</v>
       </c>
       <c r="S101" s="29"/>
@@ -15522,45 +15493,45 @@
     </row>
     <row r="102" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="30"/>
-      <c r="D102" s="67" t="s">
+      <c r="D102" s="32" t="s">
         <v>1558</v>
       </c>
-      <c r="E102" s="67" t="s">
+      <c r="E102" s="32" t="s">
         <v>1559</v>
       </c>
-      <c r="F102" s="67" t="s">
+      <c r="F102" s="32" t="s">
         <v>1561</v>
       </c>
-      <c r="G102" s="67" t="s">
+      <c r="G102" s="32" t="s">
         <v>1457</v>
       </c>
-      <c r="H102" s="67" t="s">
+      <c r="H102" s="32" t="s">
         <v>1537</v>
       </c>
-      <c r="I102" s="67" t="s">
+      <c r="I102" s="32" t="s">
         <v>1524</v>
       </c>
-      <c r="J102" s="67" t="s">
+      <c r="J102" s="32" t="s">
         <v>1325</v>
       </c>
-      <c r="K102" s="67" t="s">
+      <c r="K102" s="32" t="s">
         <v>1442</v>
       </c>
-      <c r="L102" s="67"/>
-      <c r="M102" s="67" t="s">
+      <c r="L102" s="32"/>
+      <c r="M102" s="32" t="s">
         <v>1562</v>
       </c>
-      <c r="N102" s="67" t="s">
+      <c r="N102" s="32" t="s">
         <v>1564</v>
       </c>
-      <c r="O102" s="67" t="s">
+      <c r="O102" s="32" t="s">
         <v>1406</v>
       </c>
-      <c r="P102" s="67" t="s">
+      <c r="P102" s="32" t="s">
         <v>1566</v>
       </c>
-      <c r="Q102" s="67"/>
-      <c r="R102" s="67" t="s">
+      <c r="Q102" s="32"/>
+      <c r="R102" s="32" t="s">
         <v>1568</v>
       </c>
       <c r="S102" s="39"/>
@@ -15569,64 +15540,64 @@
     <row r="103" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B103" s="20"/>
       <c r="C103" s="42"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="65"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="65"/>
-      <c r="I103" s="65"/>
-      <c r="J103" s="65"/>
-      <c r="K103" s="65"/>
-      <c r="L103" s="65"/>
-      <c r="M103" s="65"/>
-      <c r="N103" s="65"/>
-      <c r="O103" s="65"/>
-      <c r="P103" s="65"/>
-      <c r="Q103" s="65"/>
-      <c r="R103" s="65"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="22"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="22"/>
+      <c r="Q103" s="22"/>
+      <c r="R103" s="22"/>
       <c r="V103" s="44"/>
     </row>
     <row r="104" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="25"/>
-      <c r="D104" s="66" t="s">
+      <c r="D104" s="26" t="s">
         <v>482</v>
       </c>
-      <c r="E104" s="66" t="s">
+      <c r="E104" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="F104" s="66" t="s">
+      <c r="F104" s="26" t="s">
         <v>478</v>
       </c>
-      <c r="G104" s="66" t="s">
+      <c r="G104" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H104" s="66" t="s">
+      <c r="H104" s="26" t="s">
         <v>481</v>
       </c>
-      <c r="I104" s="66" t="s">
+      <c r="I104" s="26" t="s">
         <v>1572</v>
       </c>
-      <c r="J104" s="66"/>
-      <c r="K104" s="66" t="s">
+      <c r="J104" s="26"/>
+      <c r="K104" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="L104" s="66" t="s">
+      <c r="L104" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="M104" s="66" t="s">
+      <c r="M104" s="26" t="s">
         <v>1574</v>
       </c>
-      <c r="N104" s="66" t="s">
+      <c r="N104" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="O104" s="66" t="s">
+      <c r="O104" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="P104" s="66" t="s">
+      <c r="P104" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="Q104" s="66"/>
-      <c r="R104" s="66" t="s">
+      <c r="Q104" s="26"/>
+      <c r="R104" s="26" t="s">
         <v>1576</v>
       </c>
       <c r="S104" s="27"/>
@@ -15637,49 +15608,49 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="60" t="s">
+      <c r="D105" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="E105" s="60" t="s">
+      <c r="E105" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="F105" s="60" t="s">
+      <c r="F105" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="G105" s="62" t="s">
+      <c r="G105" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="H105" s="60" t="s">
+      <c r="H105" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="I105" s="60" t="s">
+      <c r="I105" s="51" t="s">
         <v>1299</v>
       </c>
-      <c r="J105" s="60" t="s">
+      <c r="J105" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K105" s="60" t="s">
+      <c r="K105" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="L105" s="60" t="s">
+      <c r="L105" s="51" t="s">
         <v>1280</v>
       </c>
-      <c r="M105" s="60" t="s">
+      <c r="M105" s="51" t="s">
         <v>1300</v>
       </c>
-      <c r="N105" s="60" t="s">
+      <c r="N105" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="O105" s="63" t="s">
+      <c r="O105" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="P105" s="60" t="s">
+      <c r="P105" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="Q105" s="60" t="s">
+      <c r="Q105" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="R105" s="60" t="s">
+      <c r="R105" s="51" t="s">
         <v>1301</v>
       </c>
       <c r="S105" s="29"/>
@@ -15687,45 +15658,45 @@
     </row>
     <row r="106" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="30"/>
-      <c r="D106" s="67" t="s">
+      <c r="D106" s="32" t="s">
         <v>1569</v>
       </c>
-      <c r="E106" s="67" t="s">
+      <c r="E106" s="32" t="s">
         <v>1496</v>
       </c>
-      <c r="F106" s="67" t="s">
+      <c r="F106" s="32" t="s">
         <v>1362</v>
       </c>
-      <c r="G106" s="67" t="s">
+      <c r="G106" s="32" t="s">
         <v>1570</v>
       </c>
-      <c r="H106" s="67" t="s">
+      <c r="H106" s="32" t="s">
         <v>1571</v>
       </c>
-      <c r="I106" s="67" t="s">
+      <c r="I106" s="32" t="s">
         <v>1573</v>
       </c>
-      <c r="J106" s="67"/>
-      <c r="K106" s="67" t="s">
+      <c r="J106" s="32"/>
+      <c r="K106" s="32" t="s">
         <v>1496</v>
       </c>
-      <c r="L106" s="67" t="s">
+      <c r="L106" s="32" t="s">
         <v>1536</v>
       </c>
-      <c r="M106" s="67" t="s">
+      <c r="M106" s="32" t="s">
         <v>1575</v>
       </c>
-      <c r="N106" s="67" t="s">
+      <c r="N106" s="32" t="s">
         <v>1325</v>
       </c>
-      <c r="O106" s="67" t="s">
+      <c r="O106" s="32" t="s">
         <v>1329</v>
       </c>
-      <c r="P106" s="67" t="s">
+      <c r="P106" s="32" t="s">
         <v>1446</v>
       </c>
-      <c r="Q106" s="67"/>
-      <c r="R106" s="67" t="s">
+      <c r="Q106" s="32"/>
+      <c r="R106" s="32" t="s">
         <v>1577</v>
       </c>
       <c r="S106" s="39"/>
@@ -15734,66 +15705,66 @@
     <row r="107" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B107" s="20"/>
       <c r="C107" s="42"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="65"/>
-      <c r="F107" s="65"/>
-      <c r="G107" s="65"/>
-      <c r="H107" s="65"/>
-      <c r="I107" s="65"/>
-      <c r="J107" s="65"/>
-      <c r="K107" s="65"/>
-      <c r="L107" s="65"/>
-      <c r="M107" s="65"/>
-      <c r="N107" s="65"/>
-      <c r="O107" s="65"/>
-      <c r="P107" s="65"/>
-      <c r="Q107" s="65"/>
-      <c r="R107" s="65"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="22"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="22"/>
+      <c r="M107" s="22"/>
+      <c r="N107" s="22"/>
+      <c r="O107" s="22"/>
+      <c r="P107" s="22"/>
+      <c r="Q107" s="22"/>
+      <c r="R107" s="22"/>
       <c r="V107" s="44"/>
     </row>
     <row r="108" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="25"/>
-      <c r="D108" s="66" t="s">
+      <c r="D108" s="26" t="s">
         <v>1511</v>
       </c>
-      <c r="E108" s="66" t="s">
+      <c r="E108" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="F108" s="66" t="s">
+      <c r="F108" s="26" t="s">
         <v>1549</v>
       </c>
-      <c r="G108" s="66" t="s">
+      <c r="G108" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="H108" s="66" t="s">
+      <c r="H108" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="I108" s="66" t="s">
+      <c r="I108" s="26" t="s">
         <v>1578</v>
       </c>
-      <c r="J108" s="66" t="s">
+      <c r="J108" s="26" t="s">
         <v>1580</v>
       </c>
-      <c r="K108" s="66"/>
-      <c r="L108" s="66" t="s">
+      <c r="K108" s="26"/>
+      <c r="L108" s="26" t="s">
         <v>1582</v>
       </c>
-      <c r="M108" s="66" t="s">
+      <c r="M108" s="26" t="s">
         <v>1584</v>
       </c>
-      <c r="N108" s="66" t="s">
+      <c r="N108" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="O108" s="66" t="s">
+      <c r="O108" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="P108" s="66" t="s">
+      <c r="P108" s="26" t="s">
         <v>475</v>
       </c>
-      <c r="Q108" s="66" t="s">
+      <c r="Q108" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="R108" s="66"/>
+      <c r="R108" s="26"/>
       <c r="S108" s="27"/>
       <c r="V108" s="15"/>
     </row>
@@ -15802,49 +15773,49 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="60" t="s">
+      <c r="D109" s="51" t="s">
         <v>1265</v>
       </c>
-      <c r="E109" s="60" t="s">
+      <c r="E109" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F109" s="60" t="s">
+      <c r="F109" s="51" t="s">
         <v>1289</v>
       </c>
-      <c r="G109" s="60" t="s">
+      <c r="G109" s="51" t="s">
         <v>1290</v>
       </c>
-      <c r="H109" s="60" t="s">
+      <c r="H109" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="I109" s="60" t="s">
+      <c r="I109" s="51" t="s">
         <v>1302</v>
       </c>
-      <c r="J109" s="60" t="s">
+      <c r="J109" s="51" t="s">
         <v>1303</v>
       </c>
-      <c r="K109" s="60" t="s">
+      <c r="K109" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="L109" s="60" t="s">
+      <c r="L109" s="51" t="s">
         <v>1304</v>
       </c>
-      <c r="M109" s="60" t="s">
+      <c r="M109" s="51" t="s">
         <v>1305</v>
       </c>
-      <c r="N109" s="60" t="s">
+      <c r="N109" s="51" t="s">
         <v>1306</v>
       </c>
-      <c r="O109" s="60" t="s">
+      <c r="O109" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="P109" s="60" t="s">
+      <c r="P109" s="51" t="s">
         <v>1307</v>
       </c>
-      <c r="Q109" s="60" t="s">
+      <c r="Q109" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="R109" s="60" t="s">
+      <c r="R109" s="51" t="s">
         <v>38</v>
       </c>
       <c r="S109" s="29"/>
@@ -15852,111 +15823,111 @@
     </row>
     <row r="110" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="30"/>
-      <c r="D110" s="67" t="s">
+      <c r="D110" s="32" t="s">
         <v>1512</v>
       </c>
-      <c r="E110" s="67" t="s">
+      <c r="E110" s="32" t="s">
         <v>1406</v>
       </c>
-      <c r="F110" s="67" t="s">
+      <c r="F110" s="32" t="s">
         <v>1550</v>
       </c>
-      <c r="G110" s="67" t="s">
+      <c r="G110" s="32" t="s">
         <v>1551</v>
       </c>
-      <c r="H110" s="67" t="s">
+      <c r="H110" s="32" t="s">
         <v>1384</v>
       </c>
-      <c r="I110" s="67" t="s">
+      <c r="I110" s="32" t="s">
         <v>1579</v>
       </c>
-      <c r="J110" s="67" t="s">
+      <c r="J110" s="32" t="s">
         <v>1581</v>
       </c>
-      <c r="K110" s="67"/>
-      <c r="L110" s="67" t="s">
+      <c r="K110" s="32"/>
+      <c r="L110" s="32" t="s">
         <v>1583</v>
       </c>
-      <c r="M110" s="67" t="s">
+      <c r="M110" s="32" t="s">
         <v>1585</v>
       </c>
-      <c r="N110" s="67" t="s">
+      <c r="N110" s="32" t="s">
         <v>1586</v>
       </c>
-      <c r="O110" s="67" t="s">
+      <c r="O110" s="32" t="s">
         <v>1384</v>
       </c>
-      <c r="P110" s="67" t="s">
+      <c r="P110" s="32" t="s">
         <v>1587</v>
       </c>
-      <c r="Q110" s="67" t="s">
+      <c r="Q110" s="32" t="s">
         <v>1588</v>
       </c>
-      <c r="R110" s="67"/>
+      <c r="R110" s="32"/>
       <c r="S110" s="39"/>
       <c r="V110" s="15"/>
     </row>
     <row r="111" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B111" s="20"/>
       <c r="C111" s="42"/>
-      <c r="D111" s="65"/>
-      <c r="E111" s="65"/>
-      <c r="F111" s="65"/>
-      <c r="G111" s="65"/>
-      <c r="H111" s="65"/>
-      <c r="I111" s="65"/>
-      <c r="J111" s="65"/>
-      <c r="K111" s="65"/>
-      <c r="L111" s="65"/>
-      <c r="M111" s="65"/>
-      <c r="N111" s="65"/>
-      <c r="O111" s="65"/>
-      <c r="P111" s="65"/>
-      <c r="Q111" s="65"/>
-      <c r="R111" s="65"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="22"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="22"/>
+      <c r="Q111" s="22"/>
+      <c r="R111" s="22"/>
       <c r="V111" s="44"/>
     </row>
     <row r="112" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="25"/>
-      <c r="D112" s="66" t="s">
+      <c r="D112" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E112" s="66" t="s">
+      <c r="E112" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="F112" s="66" t="s">
+      <c r="F112" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G112" s="66" t="s">
+      <c r="G112" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="H112" s="66"/>
-      <c r="I112" s="66" t="s">
+      <c r="H112" s="26"/>
+      <c r="I112" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="J112" s="66" t="s">
+      <c r="J112" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="K112" s="66" t="s">
+      <c r="K112" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="L112" s="66" t="s">
+      <c r="L112" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="M112" s="66" t="s">
+      <c r="M112" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="N112" s="66" t="s">
+      <c r="N112" s="26" t="s">
         <v>1560</v>
       </c>
-      <c r="O112" s="66"/>
-      <c r="P112" s="66" t="s">
+      <c r="O112" s="26"/>
+      <c r="P112" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="Q112" s="66" t="s">
+      <c r="Q112" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="R112" s="66"/>
+      <c r="R112" s="26"/>
       <c r="S112" s="27"/>
       <c r="V112" s="15"/>
     </row>
@@ -15965,49 +15936,49 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="60" t="s">
+      <c r="D113" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="E113" s="60" t="s">
+      <c r="E113" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="F113" s="60" t="s">
+      <c r="F113" s="51" t="s">
         <v>1235</v>
       </c>
-      <c r="G113" s="60" t="s">
+      <c r="G113" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="H113" s="60" t="s">
+      <c r="H113" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I113" s="60" t="s">
+      <c r="I113" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="J113" s="60" t="s">
+      <c r="J113" s="51" t="s">
         <v>1279</v>
       </c>
-      <c r="K113" s="60" t="s">
+      <c r="K113" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="L113" s="60" t="s">
+      <c r="L113" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="M113" s="60" t="s">
+      <c r="M113" s="51" t="s">
         <v>1235</v>
       </c>
-      <c r="N113" s="60" t="s">
+      <c r="N113" s="51" t="s">
         <v>1294</v>
       </c>
-      <c r="O113" s="63" t="s">
+      <c r="O113" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="P113" s="60" t="s">
+      <c r="P113" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="Q113" s="60" t="s">
+      <c r="Q113" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="R113" s="60" t="s">
+      <c r="R113" s="51" t="s">
         <v>284</v>
       </c>
       <c r="S113" s="29"/>
@@ -16015,109 +15986,109 @@
     </row>
     <row r="114" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="30"/>
-      <c r="D114" s="67" t="s">
+      <c r="D114" s="32" t="s">
         <v>1589</v>
       </c>
-      <c r="E114" s="67" t="s">
+      <c r="E114" s="32" t="s">
         <v>1325</v>
       </c>
-      <c r="F114" s="67" t="s">
+      <c r="F114" s="32" t="s">
         <v>1416</v>
       </c>
-      <c r="G114" s="67" t="s">
+      <c r="G114" s="32" t="s">
         <v>1590</v>
       </c>
-      <c r="H114" s="67"/>
-      <c r="I114" s="67" t="s">
+      <c r="H114" s="32"/>
+      <c r="I114" s="32" t="s">
         <v>1409</v>
       </c>
-      <c r="J114" s="67" t="s">
+      <c r="J114" s="32" t="s">
         <v>1442</v>
       </c>
-      <c r="K114" s="67" t="s">
+      <c r="K114" s="32" t="s">
         <v>1590</v>
       </c>
-      <c r="L114" s="67" t="s">
+      <c r="L114" s="32" t="s">
         <v>1325</v>
       </c>
-      <c r="M114" s="67" t="s">
+      <c r="M114" s="32" t="s">
         <v>1416</v>
       </c>
-      <c r="N114" s="67" t="s">
+      <c r="N114" s="32" t="s">
         <v>1561</v>
       </c>
-      <c r="O114" s="67"/>
-      <c r="P114" s="67" t="s">
+      <c r="O114" s="32"/>
+      <c r="P114" s="32" t="s">
         <v>1591</v>
       </c>
-      <c r="Q114" s="67" t="s">
+      <c r="Q114" s="32" t="s">
         <v>1456</v>
       </c>
-      <c r="R114" s="67"/>
+      <c r="R114" s="32"/>
       <c r="S114" s="39"/>
       <c r="V114" s="15"/>
     </row>
     <row r="115" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B115" s="20"/>
       <c r="C115" s="42"/>
-      <c r="D115" s="65"/>
-      <c r="E115" s="65"/>
-      <c r="F115" s="65"/>
-      <c r="G115" s="65"/>
-      <c r="H115" s="65"/>
-      <c r="I115" s="65"/>
-      <c r="J115" s="65"/>
-      <c r="K115" s="65"/>
-      <c r="L115" s="65"/>
-      <c r="M115" s="65"/>
-      <c r="N115" s="65"/>
-      <c r="O115" s="65"/>
-      <c r="P115" s="65"/>
-      <c r="Q115" s="65"/>
-      <c r="R115" s="65"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="22"/>
+      <c r="J115" s="22"/>
+      <c r="K115" s="22"/>
+      <c r="L115" s="22"/>
+      <c r="M115" s="22"/>
+      <c r="N115" s="22"/>
+      <c r="O115" s="22"/>
+      <c r="P115" s="22"/>
+      <c r="Q115" s="22"/>
+      <c r="R115" s="22"/>
       <c r="V115" s="44"/>
     </row>
     <row r="116" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="25"/>
-      <c r="D116" s="66" t="s">
+      <c r="D116" s="26" t="s">
         <v>1576</v>
       </c>
-      <c r="E116" s="66" t="s">
+      <c r="E116" s="26" t="s">
         <v>1391</v>
       </c>
-      <c r="F116" s="66" t="s">
+      <c r="F116" s="26" t="s">
         <v>1339</v>
       </c>
-      <c r="G116" s="66" t="s">
+      <c r="G116" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="H116" s="66" t="s">
+      <c r="H116" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="I116" s="66"/>
-      <c r="J116" s="66" t="s">
+      <c r="I116" s="26"/>
+      <c r="J116" s="26" t="s">
         <v>1593</v>
       </c>
-      <c r="K116" s="66" t="s">
+      <c r="K116" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="L116" s="66" t="s">
+      <c r="L116" s="26" t="s">
         <v>1440</v>
       </c>
-      <c r="M116" s="66" t="s">
+      <c r="M116" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="N116" s="66"/>
-      <c r="O116" s="66" t="s">
+      <c r="N116" s="26"/>
+      <c r="O116" s="26" t="s">
         <v>1398</v>
       </c>
-      <c r="P116" s="66" t="s">
+      <c r="P116" s="26" t="s">
         <v>1460</v>
       </c>
-      <c r="Q116" s="66" t="s">
+      <c r="Q116" s="26" t="s">
         <v>1491</v>
       </c>
-      <c r="R116" s="66" t="s">
+      <c r="R116" s="26" t="s">
         <v>1339</v>
       </c>
       <c r="S116" s="27"/>
@@ -16128,49 +16099,49 @@
         <f>B113+1</f>
         <v>29</v>
       </c>
-      <c r="D117" s="60" t="s">
+      <c r="D117" s="51" t="s">
         <v>1308</v>
       </c>
-      <c r="E117" s="60" t="s">
+      <c r="E117" s="51" t="s">
         <v>1210</v>
       </c>
-      <c r="F117" s="62" t="s">
+      <c r="F117" s="53" t="s">
         <v>1221</v>
       </c>
-      <c r="G117" s="62" t="s">
+      <c r="G117" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="H117" s="60" t="s">
+      <c r="H117" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="I117" s="60" t="s">
+      <c r="I117" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J117" s="60" t="s">
+      <c r="J117" s="51" t="s">
         <v>1309</v>
       </c>
-      <c r="K117" s="60" t="s">
+      <c r="K117" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="L117" s="60" t="s">
+      <c r="L117" s="51" t="s">
         <v>1232</v>
       </c>
-      <c r="M117" s="60" t="s">
+      <c r="M117" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="N117" s="60" t="s">
+      <c r="N117" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="O117" s="60" t="s">
+      <c r="O117" s="51" t="s">
         <v>1213</v>
       </c>
-      <c r="P117" s="60" t="s">
+      <c r="P117" s="51" t="s">
         <v>1241</v>
       </c>
-      <c r="Q117" s="60" t="s">
+      <c r="Q117" s="51" t="s">
         <v>1256</v>
       </c>
-      <c r="R117" s="60" t="s">
+      <c r="R117" s="51" t="s">
         <v>1185</v>
       </c>
       <c r="S117" s="29"/>
@@ -16178,45 +16149,45 @@
     </row>
     <row r="118" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="30"/>
-      <c r="D118" s="67" t="s">
+      <c r="D118" s="32" t="s">
         <v>1577</v>
       </c>
-      <c r="E118" s="67" t="s">
+      <c r="E118" s="32" t="s">
         <v>1392</v>
       </c>
-      <c r="F118" s="67" t="s">
+      <c r="F118" s="32" t="s">
         <v>1340</v>
       </c>
-      <c r="G118" s="67" t="s">
+      <c r="G118" s="32" t="s">
         <v>1592</v>
       </c>
-      <c r="H118" s="67" t="s">
+      <c r="H118" s="32" t="s">
         <v>1457</v>
       </c>
-      <c r="I118" s="67"/>
-      <c r="J118" s="67" t="s">
+      <c r="I118" s="32"/>
+      <c r="J118" s="32" t="s">
         <v>1594</v>
       </c>
-      <c r="K118" s="67" t="s">
+      <c r="K118" s="32" t="s">
         <v>1395</v>
       </c>
-      <c r="L118" s="67" t="s">
+      <c r="L118" s="32" t="s">
         <v>1441</v>
       </c>
-      <c r="M118" s="67" t="s">
+      <c r="M118" s="32" t="s">
         <v>1595</v>
       </c>
-      <c r="N118" s="67"/>
-      <c r="O118" s="67" t="s">
+      <c r="N118" s="32"/>
+      <c r="O118" s="32" t="s">
         <v>1399</v>
       </c>
-      <c r="P118" s="67" t="s">
+      <c r="P118" s="32" t="s">
         <v>1461</v>
       </c>
-      <c r="Q118" s="67" t="s">
+      <c r="Q118" s="32" t="s">
         <v>1492</v>
       </c>
-      <c r="R118" s="67" t="s">
+      <c r="R118" s="32" t="s">
         <v>1340</v>
       </c>
       <c r="S118" s="39"/>
@@ -16225,62 +16196,62 @@
     <row r="119" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B119" s="20"/>
       <c r="C119" s="42"/>
-      <c r="D119" s="65"/>
-      <c r="E119" s="65"/>
-      <c r="F119" s="65"/>
-      <c r="G119" s="65"/>
-      <c r="H119" s="65"/>
-      <c r="I119" s="65"/>
-      <c r="J119" s="65"/>
-      <c r="K119" s="65"/>
-      <c r="L119" s="65"/>
-      <c r="M119" s="65"/>
-      <c r="N119" s="65"/>
-      <c r="O119" s="65"/>
-      <c r="P119" s="65"/>
-      <c r="Q119" s="65"/>
-      <c r="R119" s="65"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="22"/>
+      <c r="J119" s="22"/>
+      <c r="K119" s="22"/>
+      <c r="L119" s="22"/>
+      <c r="M119" s="22"/>
+      <c r="N119" s="22"/>
+      <c r="O119" s="22"/>
+      <c r="P119" s="22"/>
+      <c r="Q119" s="22"/>
+      <c r="R119" s="22"/>
       <c r="V119" s="44"/>
     </row>
     <row r="120" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="25"/>
-      <c r="D120" s="66" t="s">
+      <c r="D120" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="E120" s="66"/>
-      <c r="F120" s="66" t="s">
+      <c r="E120" s="26"/>
+      <c r="F120" s="26" t="s">
         <v>1440</v>
       </c>
-      <c r="G120" s="66" t="s">
+      <c r="G120" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="H120" s="66" t="s">
+      <c r="H120" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="I120" s="66" t="s">
+      <c r="I120" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="J120" s="66"/>
-      <c r="K120" s="66" t="s">
+      <c r="J120" s="26"/>
+      <c r="K120" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="L120" s="66" t="s">
+      <c r="L120" s="26" t="s">
         <v>1597</v>
       </c>
-      <c r="M120" s="66" t="s">
+      <c r="M120" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="N120" s="66" t="s">
+      <c r="N120" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="O120" s="66"/>
-      <c r="P120" s="66" t="s">
+      <c r="O120" s="26"/>
+      <c r="P120" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q120" s="66" t="s">
+      <c r="Q120" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="R120" s="66" t="s">
+      <c r="R120" s="26" t="s">
         <v>395</v>
       </c>
       <c r="S120" s="27"/>
@@ -16291,49 +16262,49 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="60" t="s">
+      <c r="D121" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="E121" s="60" t="s">
+      <c r="E121" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F121" s="60" t="s">
+      <c r="F121" s="51" t="s">
         <v>1232</v>
       </c>
-      <c r="G121" s="62" t="s">
+      <c r="G121" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="H121" s="60" t="s">
+      <c r="H121" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="I121" s="60" t="s">
+      <c r="I121" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="J121" s="60" t="s">
+      <c r="J121" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K121" s="60" t="s">
+      <c r="K121" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="L121" s="60" t="s">
+      <c r="L121" s="51" t="s">
         <v>1310</v>
       </c>
-      <c r="M121" s="60" t="s">
+      <c r="M121" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="N121" s="60" t="s">
+      <c r="N121" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="O121" s="60" t="s">
+      <c r="O121" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="P121" s="60" t="s">
+      <c r="P121" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="Q121" s="60" t="s">
+      <c r="Q121" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="R121" s="60" t="s">
+      <c r="R121" s="51" t="s">
         <v>172</v>
       </c>
       <c r="S121" s="29"/>
@@ -16341,43 +16312,43 @@
     </row>
     <row r="122" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="30"/>
-      <c r="D122" s="67" t="s">
+      <c r="D122" s="32" t="s">
         <v>1596</v>
       </c>
-      <c r="E122" s="67"/>
-      <c r="F122" s="67" t="s">
+      <c r="E122" s="32"/>
+      <c r="F122" s="32" t="s">
         <v>1441</v>
       </c>
-      <c r="G122" s="67" t="s">
+      <c r="G122" s="32" t="s">
         <v>1383</v>
       </c>
-      <c r="H122" s="67" t="s">
+      <c r="H122" s="32" t="s">
         <v>1537</v>
       </c>
-      <c r="I122" s="67" t="s">
+      <c r="I122" s="32" t="s">
         <v>1446</v>
       </c>
-      <c r="J122" s="67"/>
-      <c r="K122" s="67" t="s">
+      <c r="J122" s="32"/>
+      <c r="K122" s="32" t="s">
         <v>1395</v>
       </c>
-      <c r="L122" s="67" t="s">
+      <c r="L122" s="32" t="s">
         <v>1598</v>
       </c>
-      <c r="M122" s="67" t="s">
+      <c r="M122" s="32" t="s">
         <v>1406</v>
       </c>
-      <c r="N122" s="67" t="s">
+      <c r="N122" s="32" t="s">
         <v>1341</v>
       </c>
-      <c r="O122" s="67"/>
-      <c r="P122" s="67" t="s">
+      <c r="O122" s="32"/>
+      <c r="P122" s="32" t="s">
         <v>1589</v>
       </c>
-      <c r="Q122" s="67" t="s">
+      <c r="Q122" s="32" t="s">
         <v>1325</v>
       </c>
-      <c r="R122" s="67" t="s">
+      <c r="R122" s="32" t="s">
         <v>1559</v>
       </c>
       <c r="S122" s="39"/>
@@ -16386,16 +16357,16 @@
     <row r="123" spans="2:22" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="B123" s="20"/>
       <c r="C123" s="42"/>
-      <c r="D123" s="65"/>
-      <c r="E123" s="65"/>
-      <c r="F123" s="65"/>
-      <c r="G123" s="65"/>
-      <c r="H123" s="65"/>
-      <c r="I123" s="65"/>
-      <c r="J123" s="65"/>
-      <c r="K123" s="65"/>
-      <c r="L123" s="65"/>
-      <c r="M123" s="65"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="22"/>
+      <c r="J123" s="22"/>
+      <c r="K123" s="22"/>
+      <c r="L123" s="22"/>
+      <c r="M123" s="22"/>
       <c r="N123" s="22"/>
       <c r="O123" s="22"/>
       <c r="P123" s="22"/>
@@ -16405,32 +16376,32 @@
     </row>
     <row r="124" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="25"/>
-      <c r="D124" s="66" t="s">
+      <c r="D124" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="E124" s="66"/>
-      <c r="F124" s="66" t="s">
+      <c r="E124" s="26"/>
+      <c r="F124" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="G124" s="66" t="s">
+      <c r="G124" s="26" t="s">
         <v>1515</v>
       </c>
-      <c r="H124" s="66" t="s">
+      <c r="H124" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="I124" s="66" t="s">
+      <c r="I124" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="J124" s="66" t="s">
+      <c r="J124" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="K124" s="66" t="s">
+      <c r="K124" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="L124" s="66" t="s">
+      <c r="L124" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="M124" s="66"/>
+      <c r="M124" s="26"/>
       <c r="N124" s="26"/>
       <c r="O124" s="26"/>
       <c r="P124" s="26"/>
@@ -16444,72 +16415,72 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="60" t="s">
+      <c r="D125" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="E125" s="60" t="s">
+      <c r="E125" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F125" s="60" t="s">
+      <c r="F125" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="G125" s="62" t="s">
+      <c r="G125" s="53" t="s">
         <v>1267</v>
       </c>
-      <c r="H125" s="60" t="s">
+      <c r="H125" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="I125" s="60" t="s">
+      <c r="I125" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="J125" s="60" t="s">
+      <c r="J125" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="K125" s="60" t="s">
+      <c r="K125" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="L125" s="60" t="s">
+      <c r="L125" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="M125" s="60" t="s">
+      <c r="M125" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N125" s="60"/>
-      <c r="O125" s="60"/>
-      <c r="P125" s="60"/>
-      <c r="Q125" s="60"/>
-      <c r="R125" s="60"/>
+      <c r="N125" s="51"/>
+      <c r="O125" s="51"/>
+      <c r="P125" s="51"/>
+      <c r="Q125" s="51"/>
+      <c r="R125" s="51"/>
       <c r="S125" s="29"/>
       <c r="V125" s="15"/>
     </row>
     <row r="126" spans="2:22" s="14" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="30"/>
-      <c r="D126" s="67" t="s">
+      <c r="D126" s="32" t="s">
         <v>1599</v>
       </c>
-      <c r="E126" s="67"/>
-      <c r="F126" s="67" t="s">
+      <c r="E126" s="32"/>
+      <c r="F126" s="32" t="s">
         <v>1409</v>
       </c>
-      <c r="G126" s="67" t="s">
+      <c r="G126" s="32" t="s">
         <v>1516</v>
       </c>
-      <c r="H126" s="67" t="s">
+      <c r="H126" s="32" t="s">
         <v>1355</v>
       </c>
-      <c r="I126" s="67" t="s">
+      <c r="I126" s="32" t="s">
         <v>1524</v>
       </c>
-      <c r="J126" s="67" t="s">
+      <c r="J126" s="32" t="s">
         <v>1329</v>
       </c>
-      <c r="K126" s="67" t="s">
+      <c r="K126" s="32" t="s">
         <v>1600</v>
       </c>
-      <c r="L126" s="67" t="s">
+      <c r="L126" s="32" t="s">
         <v>1570</v>
       </c>
-      <c r="M126" s="67"/>
+      <c r="M126" s="32"/>
       <c r="N126" s="32"/>
       <c r="O126" s="32"/>
       <c r="P126" s="32"/>
@@ -16563,23 +16534,23 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="60" t="s">
+      <c r="D129" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E129" s="60"/>
-      <c r="F129" s="60"/>
-      <c r="G129" s="60"/>
-      <c r="H129" s="60"/>
-      <c r="I129" s="60"/>
-      <c r="J129" s="60"/>
-      <c r="K129" s="60"/>
-      <c r="L129" s="64"/>
-      <c r="M129" s="60"/>
-      <c r="N129" s="60"/>
-      <c r="O129" s="60"/>
-      <c r="P129" s="60"/>
-      <c r="Q129" s="60"/>
-      <c r="R129" s="60"/>
+      <c r="E129" s="51"/>
+      <c r="F129" s="51"/>
+      <c r="G129" s="51"/>
+      <c r="H129" s="51"/>
+      <c r="I129" s="51"/>
+      <c r="J129" s="51"/>
+      <c r="K129" s="51"/>
+      <c r="L129" s="55"/>
+      <c r="M129" s="51"/>
+      <c r="N129" s="51"/>
+      <c r="O129" s="51"/>
+      <c r="P129" s="51"/>
+      <c r="Q129" s="51"/>
+      <c r="R129" s="51"/>
       <c r="S129" s="29"/>
       <c r="V129" s="15"/>
     </row>
@@ -16648,21 +16619,21 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="60"/>
-      <c r="E133" s="60"/>
-      <c r="F133" s="60"/>
-      <c r="G133" s="62"/>
-      <c r="H133" s="60"/>
-      <c r="I133" s="60"/>
-      <c r="J133" s="60"/>
-      <c r="K133" s="60"/>
-      <c r="L133" s="60"/>
-      <c r="M133" s="60"/>
-      <c r="N133" s="60"/>
-      <c r="O133" s="60"/>
-      <c r="P133" s="60"/>
-      <c r="Q133" s="60"/>
-      <c r="R133" s="60"/>
+      <c r="D133" s="51"/>
+      <c r="E133" s="51"/>
+      <c r="F133" s="51"/>
+      <c r="G133" s="53"/>
+      <c r="H133" s="51"/>
+      <c r="I133" s="51"/>
+      <c r="J133" s="51"/>
+      <c r="K133" s="51"/>
+      <c r="L133" s="51"/>
+      <c r="M133" s="51"/>
+      <c r="N133" s="51"/>
+      <c r="O133" s="51"/>
+      <c r="P133" s="51"/>
+      <c r="Q133" s="51"/>
+      <c r="R133" s="51"/>
       <c r="S133" s="29"/>
       <c r="V133" s="15"/>
     </row>
@@ -16731,21 +16702,21 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="60"/>
-      <c r="E137" s="60"/>
-      <c r="F137" s="60"/>
-      <c r="G137" s="60"/>
-      <c r="H137" s="60"/>
-      <c r="I137" s="60"/>
-      <c r="J137" s="60"/>
-      <c r="K137" s="60"/>
-      <c r="L137" s="60"/>
-      <c r="M137" s="60"/>
-      <c r="N137" s="60"/>
-      <c r="O137" s="60"/>
-      <c r="P137" s="60"/>
-      <c r="Q137" s="60"/>
-      <c r="R137" s="60"/>
+      <c r="D137" s="51"/>
+      <c r="E137" s="51"/>
+      <c r="F137" s="51"/>
+      <c r="G137" s="51"/>
+      <c r="H137" s="51"/>
+      <c r="I137" s="51"/>
+      <c r="J137" s="51"/>
+      <c r="K137" s="51"/>
+      <c r="L137" s="51"/>
+      <c r="M137" s="51"/>
+      <c r="N137" s="51"/>
+      <c r="O137" s="51"/>
+      <c r="P137" s="51"/>
+      <c r="Q137" s="51"/>
+      <c r="R137" s="51"/>
       <c r="S137" s="29"/>
       <c r="V137" s="15"/>
     </row>
@@ -16814,21 +16785,21 @@
         <f>B137+1</f>
         <v>35</v>
       </c>
-      <c r="D141" s="60"/>
-      <c r="E141" s="60"/>
-      <c r="F141" s="60"/>
-      <c r="G141" s="62"/>
-      <c r="H141" s="60"/>
-      <c r="I141" s="60"/>
-      <c r="J141" s="60"/>
-      <c r="K141" s="60"/>
-      <c r="L141" s="60"/>
-      <c r="M141" s="60"/>
-      <c r="N141" s="60"/>
-      <c r="O141" s="60"/>
-      <c r="P141" s="60"/>
-      <c r="Q141" s="60"/>
-      <c r="R141" s="60"/>
+      <c r="D141" s="51"/>
+      <c r="E141" s="51"/>
+      <c r="F141" s="51"/>
+      <c r="G141" s="53"/>
+      <c r="H141" s="51"/>
+      <c r="I141" s="51"/>
+      <c r="J141" s="51"/>
+      <c r="K141" s="51"/>
+      <c r="L141" s="51"/>
+      <c r="M141" s="51"/>
+      <c r="N141" s="51"/>
+      <c r="O141" s="51"/>
+      <c r="P141" s="51"/>
+      <c r="Q141" s="51"/>
+      <c r="R141" s="51"/>
       <c r="S141" s="29"/>
       <c r="V141" s="15"/>
     </row>
@@ -16897,21 +16868,21 @@
         <f>B141+1</f>
         <v>36</v>
       </c>
-      <c r="D145" s="60"/>
-      <c r="E145" s="60"/>
-      <c r="F145" s="60"/>
-      <c r="G145" s="62"/>
-      <c r="H145" s="60"/>
-      <c r="I145" s="60"/>
-      <c r="J145" s="60"/>
-      <c r="K145" s="60"/>
-      <c r="L145" s="60"/>
-      <c r="M145" s="60"/>
-      <c r="N145" s="60"/>
-      <c r="O145" s="60"/>
-      <c r="P145" s="60"/>
-      <c r="Q145" s="60"/>
-      <c r="R145" s="60"/>
+      <c r="D145" s="51"/>
+      <c r="E145" s="51"/>
+      <c r="F145" s="51"/>
+      <c r="G145" s="53"/>
+      <c r="H145" s="51"/>
+      <c r="I145" s="51"/>
+      <c r="J145" s="51"/>
+      <c r="K145" s="51"/>
+      <c r="L145" s="51"/>
+      <c r="M145" s="51"/>
+      <c r="N145" s="51"/>
+      <c r="O145" s="51"/>
+      <c r="P145" s="51"/>
+      <c r="Q145" s="51"/>
+      <c r="R145" s="51"/>
       <c r="S145" s="29"/>
       <c r="V145" s="15"/>
     </row>
@@ -16980,21 +16951,21 @@
         <f>B145+1</f>
         <v>37</v>
       </c>
-      <c r="D149" s="60"/>
-      <c r="E149" s="60"/>
-      <c r="F149" s="60"/>
-      <c r="G149" s="60"/>
-      <c r="H149" s="60"/>
-      <c r="I149" s="60"/>
-      <c r="J149" s="60"/>
-      <c r="K149" s="60"/>
-      <c r="L149" s="60"/>
-      <c r="M149" s="60"/>
-      <c r="N149" s="60"/>
-      <c r="O149" s="60"/>
-      <c r="P149" s="60"/>
-      <c r="Q149" s="60"/>
-      <c r="R149" s="60"/>
+      <c r="D149" s="51"/>
+      <c r="E149" s="51"/>
+      <c r="F149" s="51"/>
+      <c r="G149" s="51"/>
+      <c r="H149" s="51"/>
+      <c r="I149" s="51"/>
+      <c r="J149" s="51"/>
+      <c r="K149" s="51"/>
+      <c r="L149" s="51"/>
+      <c r="M149" s="51"/>
+      <c r="N149" s="51"/>
+      <c r="O149" s="51"/>
+      <c r="P149" s="51"/>
+      <c r="Q149" s="51"/>
+      <c r="R149" s="51"/>
       <c r="S149" s="29"/>
       <c r="V149" s="15"/>
     </row>
@@ -17063,21 +17034,21 @@
         <f>B149+1</f>
         <v>38</v>
       </c>
-      <c r="D153" s="60"/>
-      <c r="E153" s="60"/>
-      <c r="F153" s="60"/>
-      <c r="G153" s="60"/>
-      <c r="H153" s="60"/>
-      <c r="I153" s="60"/>
-      <c r="J153" s="60"/>
-      <c r="K153" s="60"/>
-      <c r="L153" s="60"/>
-      <c r="M153" s="60"/>
-      <c r="N153" s="60"/>
-      <c r="O153" s="60"/>
-      <c r="P153" s="60"/>
-      <c r="Q153" s="60"/>
-      <c r="R153" s="60"/>
+      <c r="D153" s="51"/>
+      <c r="E153" s="51"/>
+      <c r="F153" s="51"/>
+      <c r="G153" s="51"/>
+      <c r="H153" s="51"/>
+      <c r="I153" s="51"/>
+      <c r="J153" s="51"/>
+      <c r="K153" s="51"/>
+      <c r="L153" s="51"/>
+      <c r="M153" s="51"/>
+      <c r="N153" s="51"/>
+      <c r="O153" s="51"/>
+      <c r="P153" s="51"/>
+      <c r="Q153" s="51"/>
+      <c r="R153" s="51"/>
       <c r="S153" s="29"/>
       <c r="V153" s="15"/>
     </row>
@@ -17146,21 +17117,21 @@
         <f>B153+1</f>
         <v>39</v>
       </c>
-      <c r="D157" s="60"/>
-      <c r="E157" s="60"/>
-      <c r="F157" s="60"/>
-      <c r="G157" s="60"/>
-      <c r="H157" s="60"/>
-      <c r="I157" s="60"/>
-      <c r="J157" s="60"/>
-      <c r="K157" s="60"/>
-      <c r="L157" s="60"/>
-      <c r="M157" s="60"/>
-      <c r="N157" s="60"/>
-      <c r="O157" s="60"/>
-      <c r="P157" s="60"/>
-      <c r="Q157" s="60"/>
-      <c r="R157" s="60"/>
+      <c r="D157" s="51"/>
+      <c r="E157" s="51"/>
+      <c r="F157" s="51"/>
+      <c r="G157" s="51"/>
+      <c r="H157" s="51"/>
+      <c r="I157" s="51"/>
+      <c r="J157" s="51"/>
+      <c r="K157" s="51"/>
+      <c r="L157" s="51"/>
+      <c r="M157" s="51"/>
+      <c r="N157" s="51"/>
+      <c r="O157" s="51"/>
+      <c r="P157" s="51"/>
+      <c r="Q157" s="51"/>
+      <c r="R157" s="51"/>
       <c r="S157" s="29"/>
       <c r="V157" s="15"/>
     </row>
@@ -17229,21 +17200,21 @@
         <f>B157+1</f>
         <v>40</v>
       </c>
-      <c r="D161" s="60"/>
-      <c r="E161" s="60"/>
-      <c r="F161" s="60"/>
-      <c r="G161" s="60"/>
-      <c r="H161" s="60"/>
-      <c r="I161" s="60"/>
-      <c r="J161" s="60"/>
-      <c r="K161" s="60"/>
-      <c r="L161" s="60"/>
-      <c r="M161" s="60"/>
-      <c r="N161" s="60"/>
-      <c r="O161" s="60"/>
-      <c r="P161" s="60"/>
-      <c r="Q161" s="60"/>
-      <c r="R161" s="60"/>
+      <c r="D161" s="51"/>
+      <c r="E161" s="51"/>
+      <c r="F161" s="51"/>
+      <c r="G161" s="51"/>
+      <c r="H161" s="51"/>
+      <c r="I161" s="51"/>
+      <c r="J161" s="51"/>
+      <c r="K161" s="51"/>
+      <c r="L161" s="51"/>
+      <c r="M161" s="51"/>
+      <c r="N161" s="51"/>
+      <c r="O161" s="51"/>
+      <c r="P161" s="51"/>
+      <c r="Q161" s="51"/>
+      <c r="R161" s="51"/>
       <c r="S161" s="29"/>
       <c r="V161" s="15"/>
     </row>
@@ -17312,21 +17283,21 @@
         <f>B161+1</f>
         <v>41</v>
       </c>
-      <c r="D165" s="60"/>
-      <c r="E165" s="60"/>
-      <c r="F165" s="60"/>
-      <c r="G165" s="60"/>
-      <c r="H165" s="60"/>
-      <c r="I165" s="60"/>
-      <c r="J165" s="60"/>
-      <c r="K165" s="60"/>
-      <c r="L165" s="60"/>
-      <c r="M165" s="60"/>
-      <c r="N165" s="60"/>
-      <c r="O165" s="60"/>
-      <c r="P165" s="60"/>
-      <c r="Q165" s="60"/>
-      <c r="R165" s="60"/>
+      <c r="D165" s="51"/>
+      <c r="E165" s="51"/>
+      <c r="F165" s="51"/>
+      <c r="G165" s="51"/>
+      <c r="H165" s="51"/>
+      <c r="I165" s="51"/>
+      <c r="J165" s="51"/>
+      <c r="K165" s="51"/>
+      <c r="L165" s="51"/>
+      <c r="M165" s="51"/>
+      <c r="N165" s="51"/>
+      <c r="O165" s="51"/>
+      <c r="P165" s="51"/>
+      <c r="Q165" s="51"/>
+      <c r="R165" s="51"/>
       <c r="S165" s="29"/>
       <c r="V165" s="15"/>
     </row>
@@ -17394,21 +17365,21 @@
         <v>42</v>
       </c>
       <c r="C169" s="14"/>
-      <c r="D169" s="60"/>
-      <c r="E169" s="60"/>
-      <c r="F169" s="60"/>
-      <c r="G169" s="60"/>
-      <c r="H169" s="60"/>
-      <c r="I169" s="60"/>
-      <c r="J169" s="60"/>
-      <c r="K169" s="60"/>
-      <c r="L169" s="60"/>
-      <c r="M169" s="60"/>
-      <c r="N169" s="60"/>
-      <c r="O169" s="60"/>
-      <c r="P169" s="60"/>
-      <c r="Q169" s="60"/>
-      <c r="R169" s="60"/>
+      <c r="D169" s="51"/>
+      <c r="E169" s="51"/>
+      <c r="F169" s="51"/>
+      <c r="G169" s="51"/>
+      <c r="H169" s="51"/>
+      <c r="I169" s="51"/>
+      <c r="J169" s="51"/>
+      <c r="K169" s="51"/>
+      <c r="L169" s="51"/>
+      <c r="M169" s="51"/>
+      <c r="N169" s="51"/>
+      <c r="O169" s="51"/>
+      <c r="P169" s="51"/>
+      <c r="Q169" s="51"/>
+      <c r="R169" s="51"/>
     </row>
     <row r="170" spans="2:22">
       <c r="B170" s="30"/>
@@ -17473,21 +17444,21 @@
         <v>43</v>
       </c>
       <c r="C173" s="14"/>
-      <c r="D173" s="60"/>
-      <c r="E173" s="60"/>
-      <c r="F173" s="60"/>
-      <c r="G173" s="62"/>
-      <c r="H173" s="60"/>
-      <c r="I173" s="60"/>
-      <c r="J173" s="60"/>
-      <c r="K173" s="60"/>
-      <c r="L173" s="60"/>
-      <c r="M173" s="60"/>
-      <c r="N173" s="60"/>
-      <c r="O173" s="60"/>
-      <c r="P173" s="60"/>
-      <c r="Q173" s="60"/>
-      <c r="R173" s="60"/>
+      <c r="D173" s="51"/>
+      <c r="E173" s="51"/>
+      <c r="F173" s="51"/>
+      <c r="G173" s="53"/>
+      <c r="H173" s="51"/>
+      <c r="I173" s="51"/>
+      <c r="J173" s="51"/>
+      <c r="K173" s="51"/>
+      <c r="L173" s="51"/>
+      <c r="M173" s="51"/>
+      <c r="N173" s="51"/>
+      <c r="O173" s="51"/>
+      <c r="P173" s="51"/>
+      <c r="Q173" s="51"/>
+      <c r="R173" s="51"/>
     </row>
     <row r="174" spans="2:22">
       <c r="B174" s="30"/>
@@ -17552,21 +17523,21 @@
         <v>44</v>
       </c>
       <c r="C177" s="14"/>
-      <c r="D177" s="60"/>
-      <c r="E177" s="60"/>
-      <c r="F177" s="60"/>
-      <c r="G177" s="60"/>
-      <c r="H177" s="60"/>
-      <c r="I177" s="60"/>
-      <c r="J177" s="60"/>
-      <c r="K177" s="60"/>
-      <c r="L177" s="60"/>
-      <c r="M177" s="60"/>
-      <c r="N177" s="60"/>
-      <c r="O177" s="60"/>
-      <c r="P177" s="60"/>
-      <c r="Q177" s="60"/>
-      <c r="R177" s="60"/>
+      <c r="D177" s="51"/>
+      <c r="E177" s="51"/>
+      <c r="F177" s="51"/>
+      <c r="G177" s="51"/>
+      <c r="H177" s="51"/>
+      <c r="I177" s="51"/>
+      <c r="J177" s="51"/>
+      <c r="K177" s="51"/>
+      <c r="L177" s="51"/>
+      <c r="M177" s="51"/>
+      <c r="N177" s="51"/>
+      <c r="O177" s="51"/>
+      <c r="P177" s="51"/>
+      <c r="Q177" s="51"/>
+      <c r="R177" s="51"/>
     </row>
     <row r="178" spans="2:18">
       <c r="B178" s="30"/>
@@ -17631,21 +17602,21 @@
         <v>45</v>
       </c>
       <c r="C181" s="14"/>
-      <c r="D181" s="60"/>
-      <c r="E181" s="60"/>
-      <c r="F181" s="60"/>
-      <c r="G181" s="62"/>
-      <c r="H181" s="60"/>
-      <c r="I181" s="60"/>
-      <c r="J181" s="60"/>
-      <c r="K181" s="60"/>
-      <c r="L181" s="60"/>
-      <c r="M181" s="60"/>
-      <c r="N181" s="60"/>
-      <c r="O181" s="60"/>
-      <c r="P181" s="60"/>
-      <c r="Q181" s="60"/>
-      <c r="R181" s="60"/>
+      <c r="D181" s="51"/>
+      <c r="E181" s="51"/>
+      <c r="F181" s="51"/>
+      <c r="G181" s="53"/>
+      <c r="H181" s="51"/>
+      <c r="I181" s="51"/>
+      <c r="J181" s="51"/>
+      <c r="K181" s="51"/>
+      <c r="L181" s="51"/>
+      <c r="M181" s="51"/>
+      <c r="N181" s="51"/>
+      <c r="O181" s="51"/>
+      <c r="P181" s="51"/>
+      <c r="Q181" s="51"/>
+      <c r="R181" s="51"/>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="30"/>
@@ -17710,21 +17681,21 @@
         <v>46</v>
       </c>
       <c r="C185" s="14"/>
-      <c r="D185" s="60"/>
-      <c r="E185" s="60"/>
-      <c r="F185" s="60"/>
-      <c r="G185" s="60"/>
-      <c r="H185" s="60"/>
-      <c r="I185" s="60"/>
-      <c r="J185" s="60"/>
-      <c r="K185" s="60"/>
-      <c r="L185" s="60"/>
-      <c r="M185" s="60"/>
-      <c r="N185" s="60"/>
-      <c r="O185" s="60"/>
-      <c r="P185" s="60"/>
-      <c r="Q185" s="60"/>
-      <c r="R185" s="60"/>
+      <c r="D185" s="51"/>
+      <c r="E185" s="51"/>
+      <c r="F185" s="51"/>
+      <c r="G185" s="51"/>
+      <c r="H185" s="51"/>
+      <c r="I185" s="51"/>
+      <c r="J185" s="51"/>
+      <c r="K185" s="51"/>
+      <c r="L185" s="51"/>
+      <c r="M185" s="51"/>
+      <c r="N185" s="51"/>
+      <c r="O185" s="51"/>
+      <c r="P185" s="51"/>
+      <c r="Q185" s="51"/>
+      <c r="R185" s="51"/>
     </row>
     <row r="186" spans="2:18">
       <c r="B186" s="30"/>
@@ -17789,21 +17760,21 @@
         <v>47</v>
       </c>
       <c r="C189" s="14"/>
-      <c r="D189" s="60"/>
-      <c r="E189" s="60"/>
-      <c r="F189" s="60"/>
-      <c r="G189" s="60"/>
-      <c r="H189" s="60"/>
-      <c r="I189" s="60"/>
-      <c r="J189" s="60"/>
-      <c r="K189" s="60"/>
-      <c r="L189" s="60"/>
-      <c r="M189" s="60"/>
-      <c r="N189" s="60"/>
-      <c r="O189" s="60"/>
-      <c r="P189" s="60"/>
-      <c r="Q189" s="60"/>
-      <c r="R189" s="60"/>
+      <c r="D189" s="51"/>
+      <c r="E189" s="51"/>
+      <c r="F189" s="51"/>
+      <c r="G189" s="51"/>
+      <c r="H189" s="51"/>
+      <c r="I189" s="51"/>
+      <c r="J189" s="51"/>
+      <c r="K189" s="51"/>
+      <c r="L189" s="51"/>
+      <c r="M189" s="51"/>
+      <c r="N189" s="51"/>
+      <c r="O189" s="51"/>
+      <c r="P189" s="51"/>
+      <c r="Q189" s="51"/>
+      <c r="R189" s="51"/>
     </row>
     <row r="190" spans="2:18">
       <c r="B190" s="30"/>
@@ -17868,21 +17839,21 @@
         <v>48</v>
       </c>
       <c r="C193" s="14"/>
-      <c r="D193" s="60"/>
-      <c r="E193" s="60"/>
-      <c r="F193" s="60"/>
-      <c r="G193" s="62"/>
-      <c r="H193" s="60"/>
-      <c r="I193" s="60"/>
-      <c r="J193" s="60"/>
-      <c r="K193" s="60"/>
-      <c r="L193" s="60"/>
-      <c r="M193" s="60"/>
-      <c r="N193" s="60"/>
-      <c r="O193" s="60"/>
-      <c r="P193" s="60"/>
-      <c r="Q193" s="60"/>
-      <c r="R193" s="60"/>
+      <c r="D193" s="51"/>
+      <c r="E193" s="51"/>
+      <c r="F193" s="51"/>
+      <c r="G193" s="53"/>
+      <c r="H193" s="51"/>
+      <c r="I193" s="51"/>
+      <c r="J193" s="51"/>
+      <c r="K193" s="51"/>
+      <c r="L193" s="51"/>
+      <c r="M193" s="51"/>
+      <c r="N193" s="51"/>
+      <c r="O193" s="51"/>
+      <c r="P193" s="51"/>
+      <c r="Q193" s="51"/>
+      <c r="R193" s="51"/>
     </row>
     <row r="194" spans="2:18">
       <c r="B194" s="30"/>
@@ -17947,21 +17918,21 @@
         <v>49</v>
       </c>
       <c r="C197" s="14"/>
-      <c r="D197" s="60"/>
-      <c r="E197" s="60"/>
-      <c r="F197" s="60"/>
-      <c r="G197" s="62"/>
-      <c r="H197" s="60"/>
-      <c r="I197" s="60"/>
-      <c r="J197" s="60"/>
-      <c r="K197" s="60"/>
-      <c r="L197" s="60"/>
-      <c r="M197" s="60"/>
-      <c r="N197" s="60"/>
-      <c r="O197" s="60"/>
-      <c r="P197" s="60"/>
-      <c r="Q197" s="60"/>
-      <c r="R197" s="60"/>
+      <c r="D197" s="51"/>
+      <c r="E197" s="51"/>
+      <c r="F197" s="51"/>
+      <c r="G197" s="53"/>
+      <c r="H197" s="51"/>
+      <c r="I197" s="51"/>
+      <c r="J197" s="51"/>
+      <c r="K197" s="51"/>
+      <c r="L197" s="51"/>
+      <c r="M197" s="51"/>
+      <c r="N197" s="51"/>
+      <c r="O197" s="51"/>
+      <c r="P197" s="51"/>
+      <c r="Q197" s="51"/>
+      <c r="R197" s="51"/>
     </row>
     <row r="198" spans="2:18">
       <c r="B198" s="30"/>
@@ -18026,21 +17997,21 @@
         <v>50</v>
       </c>
       <c r="C201" s="14"/>
-      <c r="D201" s="60"/>
-      <c r="E201" s="60"/>
-      <c r="F201" s="60"/>
-      <c r="G201" s="62"/>
-      <c r="H201" s="60"/>
-      <c r="I201" s="60"/>
-      <c r="J201" s="60"/>
-      <c r="K201" s="60"/>
-      <c r="L201" s="60"/>
-      <c r="M201" s="60"/>
-      <c r="N201" s="60"/>
-      <c r="O201" s="60"/>
-      <c r="P201" s="60"/>
-      <c r="Q201" s="60"/>
-      <c r="R201" s="60"/>
+      <c r="D201" s="51"/>
+      <c r="E201" s="51"/>
+      <c r="F201" s="51"/>
+      <c r="G201" s="53"/>
+      <c r="H201" s="51"/>
+      <c r="I201" s="51"/>
+      <c r="J201" s="51"/>
+      <c r="K201" s="51"/>
+      <c r="L201" s="51"/>
+      <c r="M201" s="51"/>
+      <c r="N201" s="51"/>
+      <c r="O201" s="51"/>
+      <c r="P201" s="51"/>
+      <c r="Q201" s="51"/>
+      <c r="R201" s="51"/>
     </row>
     <row r="202" spans="2:18">
       <c r="B202" s="30"/>
@@ -18105,21 +18076,21 @@
         <v>51</v>
       </c>
       <c r="C205" s="14"/>
-      <c r="D205" s="60"/>
-      <c r="E205" s="60"/>
-      <c r="F205" s="60"/>
-      <c r="G205" s="62"/>
-      <c r="H205" s="60"/>
-      <c r="I205" s="60"/>
-      <c r="J205" s="60"/>
-      <c r="K205" s="60"/>
-      <c r="L205" s="60"/>
-      <c r="M205" s="60"/>
-      <c r="N205" s="60"/>
-      <c r="O205" s="60"/>
-      <c r="P205" s="60"/>
-      <c r="Q205" s="60"/>
-      <c r="R205" s="60"/>
+      <c r="D205" s="51"/>
+      <c r="E205" s="51"/>
+      <c r="F205" s="51"/>
+      <c r="G205" s="53"/>
+      <c r="H205" s="51"/>
+      <c r="I205" s="51"/>
+      <c r="J205" s="51"/>
+      <c r="K205" s="51"/>
+      <c r="L205" s="51"/>
+      <c r="M205" s="51"/>
+      <c r="N205" s="51"/>
+      <c r="O205" s="51"/>
+      <c r="P205" s="51"/>
+      <c r="Q205" s="51"/>
+      <c r="R205" s="51"/>
     </row>
     <row r="206" spans="2:18">
       <c r="B206" s="30"/>
@@ -18184,21 +18155,21 @@
         <v>52</v>
       </c>
       <c r="C209" s="14"/>
-      <c r="D209" s="60"/>
-      <c r="E209" s="60"/>
-      <c r="F209" s="60"/>
-      <c r="G209" s="62"/>
-      <c r="H209" s="60"/>
-      <c r="I209" s="60"/>
-      <c r="J209" s="60"/>
-      <c r="K209" s="60"/>
-      <c r="L209" s="60"/>
-      <c r="M209" s="60"/>
-      <c r="N209" s="60"/>
-      <c r="O209" s="60"/>
-      <c r="P209" s="60"/>
-      <c r="Q209" s="60"/>
-      <c r="R209" s="60"/>
+      <c r="D209" s="51"/>
+      <c r="E209" s="51"/>
+      <c r="F209" s="51"/>
+      <c r="G209" s="53"/>
+      <c r="H209" s="51"/>
+      <c r="I209" s="51"/>
+      <c r="J209" s="51"/>
+      <c r="K209" s="51"/>
+      <c r="L209" s="51"/>
+      <c r="M209" s="51"/>
+      <c r="N209" s="51"/>
+      <c r="O209" s="51"/>
+      <c r="P209" s="51"/>
+      <c r="Q209" s="51"/>
+      <c r="R209" s="51"/>
     </row>
     <row r="210" spans="2:18">
       <c r="B210" s="30"/>
@@ -18263,21 +18234,21 @@
         <v>53</v>
       </c>
       <c r="C213" s="14"/>
-      <c r="D213" s="60"/>
-      <c r="E213" s="60"/>
-      <c r="F213" s="60"/>
-      <c r="G213" s="62"/>
-      <c r="H213" s="60"/>
-      <c r="I213" s="60"/>
-      <c r="J213" s="60"/>
-      <c r="K213" s="60"/>
-      <c r="L213" s="60"/>
-      <c r="M213" s="60"/>
-      <c r="N213" s="60"/>
-      <c r="O213" s="60"/>
-      <c r="P213" s="60"/>
-      <c r="Q213" s="60"/>
-      <c r="R213" s="60"/>
+      <c r="D213" s="51"/>
+      <c r="E213" s="51"/>
+      <c r="F213" s="51"/>
+      <c r="G213" s="53"/>
+      <c r="H213" s="51"/>
+      <c r="I213" s="51"/>
+      <c r="J213" s="51"/>
+      <c r="K213" s="51"/>
+      <c r="L213" s="51"/>
+      <c r="M213" s="51"/>
+      <c r="N213" s="51"/>
+      <c r="O213" s="51"/>
+      <c r="P213" s="51"/>
+      <c r="Q213" s="51"/>
+      <c r="R213" s="51"/>
     </row>
     <row r="214" spans="2:18">
       <c r="B214" s="30"/>
@@ -18342,21 +18313,21 @@
         <v>54</v>
       </c>
       <c r="C217" s="14"/>
-      <c r="D217" s="60"/>
-      <c r="E217" s="60"/>
-      <c r="F217" s="60"/>
-      <c r="G217" s="62"/>
-      <c r="H217" s="60"/>
-      <c r="I217" s="60"/>
-      <c r="J217" s="60"/>
-      <c r="K217" s="60"/>
-      <c r="L217" s="60"/>
-      <c r="M217" s="60"/>
-      <c r="N217" s="60"/>
-      <c r="O217" s="60"/>
-      <c r="P217" s="60"/>
-      <c r="Q217" s="60"/>
-      <c r="R217" s="60"/>
+      <c r="D217" s="51"/>
+      <c r="E217" s="51"/>
+      <c r="F217" s="51"/>
+      <c r="G217" s="53"/>
+      <c r="H217" s="51"/>
+      <c r="I217" s="51"/>
+      <c r="J217" s="51"/>
+      <c r="K217" s="51"/>
+      <c r="L217" s="51"/>
+      <c r="M217" s="51"/>
+      <c r="N217" s="51"/>
+      <c r="O217" s="51"/>
+      <c r="P217" s="51"/>
+      <c r="Q217" s="51"/>
+      <c r="R217" s="51"/>
     </row>
     <row r="218" spans="2:18">
       <c r="B218" s="30"/>
@@ -18421,21 +18392,21 @@
         <v>55</v>
       </c>
       <c r="C221" s="14"/>
-      <c r="D221" s="60"/>
-      <c r="E221" s="60"/>
-      <c r="F221" s="60"/>
-      <c r="G221" s="62"/>
-      <c r="H221" s="60"/>
-      <c r="I221" s="60"/>
-      <c r="J221" s="60"/>
-      <c r="K221" s="60"/>
-      <c r="L221" s="60"/>
-      <c r="M221" s="60"/>
-      <c r="N221" s="60"/>
-      <c r="O221" s="60"/>
-      <c r="P221" s="60"/>
-      <c r="Q221" s="60"/>
-      <c r="R221" s="60"/>
+      <c r="D221" s="51"/>
+      <c r="E221" s="51"/>
+      <c r="F221" s="51"/>
+      <c r="G221" s="53"/>
+      <c r="H221" s="51"/>
+      <c r="I221" s="51"/>
+      <c r="J221" s="51"/>
+      <c r="K221" s="51"/>
+      <c r="L221" s="51"/>
+      <c r="M221" s="51"/>
+      <c r="N221" s="51"/>
+      <c r="O221" s="51"/>
+      <c r="P221" s="51"/>
+      <c r="Q221" s="51"/>
+      <c r="R221" s="51"/>
     </row>
     <row r="222" spans="2:18">
       <c r="B222" s="30"/>
@@ -18500,21 +18471,21 @@
         <v>56</v>
       </c>
       <c r="C225" s="14"/>
-      <c r="D225" s="60"/>
-      <c r="E225" s="60"/>
-      <c r="F225" s="60"/>
-      <c r="G225" s="62"/>
-      <c r="H225" s="60"/>
-      <c r="I225" s="60"/>
-      <c r="J225" s="60"/>
-      <c r="K225" s="60"/>
-      <c r="L225" s="60"/>
-      <c r="M225" s="60"/>
-      <c r="N225" s="60"/>
-      <c r="O225" s="60"/>
-      <c r="P225" s="60"/>
-      <c r="Q225" s="60"/>
-      <c r="R225" s="60"/>
+      <c r="D225" s="51"/>
+      <c r="E225" s="51"/>
+      <c r="F225" s="51"/>
+      <c r="G225" s="53"/>
+      <c r="H225" s="51"/>
+      <c r="I225" s="51"/>
+      <c r="J225" s="51"/>
+      <c r="K225" s="51"/>
+      <c r="L225" s="51"/>
+      <c r="M225" s="51"/>
+      <c r="N225" s="51"/>
+      <c r="O225" s="51"/>
+      <c r="P225" s="51"/>
+      <c r="Q225" s="51"/>
+      <c r="R225" s="51"/>
     </row>
     <row r="226" spans="2:18">
       <c r="B226" s="30"/>
@@ -18579,21 +18550,21 @@
         <v>57</v>
       </c>
       <c r="C229" s="14"/>
-      <c r="D229" s="60"/>
-      <c r="E229" s="60"/>
-      <c r="F229" s="60"/>
-      <c r="G229" s="62"/>
-      <c r="H229" s="60"/>
-      <c r="I229" s="60"/>
-      <c r="J229" s="60"/>
-      <c r="K229" s="60"/>
-      <c r="L229" s="60"/>
-      <c r="M229" s="60"/>
-      <c r="N229" s="60"/>
-      <c r="O229" s="60"/>
-      <c r="P229" s="60"/>
-      <c r="Q229" s="60"/>
-      <c r="R229" s="60"/>
+      <c r="D229" s="51"/>
+      <c r="E229" s="51"/>
+      <c r="F229" s="51"/>
+      <c r="G229" s="53"/>
+      <c r="H229" s="51"/>
+      <c r="I229" s="51"/>
+      <c r="J229" s="51"/>
+      <c r="K229" s="51"/>
+      <c r="L229" s="51"/>
+      <c r="M229" s="51"/>
+      <c r="N229" s="51"/>
+      <c r="O229" s="51"/>
+      <c r="P229" s="51"/>
+      <c r="Q229" s="51"/>
+      <c r="R229" s="51"/>
     </row>
     <row r="230" spans="2:18">
       <c r="B230" s="30"/>
@@ -18658,21 +18629,21 @@
         <v>58</v>
       </c>
       <c r="C233" s="14"/>
-      <c r="D233" s="60"/>
-      <c r="E233" s="60"/>
-      <c r="F233" s="60"/>
-      <c r="G233" s="62"/>
-      <c r="H233" s="60"/>
-      <c r="I233" s="60"/>
-      <c r="J233" s="60"/>
-      <c r="K233" s="60"/>
-      <c r="L233" s="60"/>
-      <c r="M233" s="60"/>
-      <c r="N233" s="60"/>
-      <c r="O233" s="60"/>
-      <c r="P233" s="60"/>
-      <c r="Q233" s="60"/>
-      <c r="R233" s="60"/>
+      <c r="D233" s="51"/>
+      <c r="E233" s="51"/>
+      <c r="F233" s="51"/>
+      <c r="G233" s="53"/>
+      <c r="H233" s="51"/>
+      <c r="I233" s="51"/>
+      <c r="J233" s="51"/>
+      <c r="K233" s="51"/>
+      <c r="L233" s="51"/>
+      <c r="M233" s="51"/>
+      <c r="N233" s="51"/>
+      <c r="O233" s="51"/>
+      <c r="P233" s="51"/>
+      <c r="Q233" s="51"/>
+      <c r="R233" s="51"/>
     </row>
     <row r="234" spans="2:18">
       <c r="B234" s="30"/>
@@ -18737,21 +18708,21 @@
         <v>59</v>
       </c>
       <c r="C237" s="14"/>
-      <c r="D237" s="60"/>
-      <c r="E237" s="60"/>
-      <c r="F237" s="60"/>
-      <c r="G237" s="62"/>
-      <c r="H237" s="60"/>
-      <c r="I237" s="60"/>
-      <c r="J237" s="60"/>
-      <c r="K237" s="60"/>
-      <c r="L237" s="60"/>
-      <c r="M237" s="60"/>
-      <c r="N237" s="60"/>
-      <c r="O237" s="60"/>
-      <c r="P237" s="60"/>
-      <c r="Q237" s="60"/>
-      <c r="R237" s="60"/>
+      <c r="D237" s="51"/>
+      <c r="E237" s="51"/>
+      <c r="F237" s="51"/>
+      <c r="G237" s="53"/>
+      <c r="H237" s="51"/>
+      <c r="I237" s="51"/>
+      <c r="J237" s="51"/>
+      <c r="K237" s="51"/>
+      <c r="L237" s="51"/>
+      <c r="M237" s="51"/>
+      <c r="N237" s="51"/>
+      <c r="O237" s="51"/>
+      <c r="P237" s="51"/>
+      <c r="Q237" s="51"/>
+      <c r="R237" s="51"/>
     </row>
     <row r="238" spans="2:18">
       <c r="B238" s="30"/>
@@ -18816,21 +18787,21 @@
         <v>60</v>
       </c>
       <c r="C241" s="14"/>
-      <c r="D241" s="60"/>
-      <c r="E241" s="60"/>
-      <c r="F241" s="60"/>
-      <c r="G241" s="62"/>
-      <c r="H241" s="60"/>
-      <c r="I241" s="60"/>
-      <c r="J241" s="60"/>
-      <c r="K241" s="60"/>
-      <c r="L241" s="60"/>
-      <c r="M241" s="60"/>
-      <c r="N241" s="60"/>
-      <c r="O241" s="60"/>
-      <c r="P241" s="60"/>
-      <c r="Q241" s="60"/>
-      <c r="R241" s="60"/>
+      <c r="D241" s="51"/>
+      <c r="E241" s="51"/>
+      <c r="F241" s="51"/>
+      <c r="G241" s="53"/>
+      <c r="H241" s="51"/>
+      <c r="I241" s="51"/>
+      <c r="J241" s="51"/>
+      <c r="K241" s="51"/>
+      <c r="L241" s="51"/>
+      <c r="M241" s="51"/>
+      <c r="N241" s="51"/>
+      <c r="O241" s="51"/>
+      <c r="P241" s="51"/>
+      <c r="Q241" s="51"/>
+      <c r="R241" s="51"/>
     </row>
     <row r="242" spans="2:18">
       <c r="B242" s="30"/>

--- a/output7/【河洛文讀注音-雅俗通】《蘭亭集序》.xlsx
+++ b/output7/【河洛文讀注音-雅俗通】《蘭亭集序》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{317E6E7E-F8AF-475A-A015-93C26E8C1325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1088EE-1524-4496-B0D3-A76A43FDC8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-29310" yWindow="2325" windowWidth="31695" windowHeight="14280" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView minimized="1" xWindow="15735" yWindow="1185" windowWidth="22575" windowHeight="14280" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -6171,7 +6171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6350,6 +6350,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -11673,9 +11682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A119" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -11858,46 +11865,46 @@
       <c r="B5" s="28">
         <v>1</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="56" t="s">
         <v>1176</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="56" t="s">
         <v>1177</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="56" t="s">
         <v>87</v>
       </c>
       <c r="H5" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="56" t="s">
         <v>1178</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="K5" s="51" t="s">
+      <c r="K5" s="56" t="s">
         <v>1179</v>
       </c>
-      <c r="L5" s="51" t="s">
+      <c r="L5" s="56" t="s">
         <v>1180</v>
       </c>
       <c r="M5" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="51" t="s">
+      <c r="N5" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="O5" s="51" t="s">
+      <c r="O5" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="P5" s="51" t="s">
+      <c r="P5" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="Q5" s="51" t="s">
+      <c r="Q5" s="56" t="s">
         <v>1181</v>
       </c>
       <c r="R5" s="51" t="s">
@@ -12023,46 +12030,46 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="56" t="s">
         <v>1182</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="K9" s="51" t="s">
+      <c r="K9" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="56" t="s">
         <v>1183</v>
       </c>
       <c r="M9" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="51" t="s">
+      <c r="N9" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="O9" s="51" t="s">
+      <c r="O9" s="56" t="s">
         <v>1184</v>
       </c>
-      <c r="P9" s="51" t="s">
+      <c r="P9" s="56" t="s">
         <v>1185</v>
       </c>
-      <c r="Q9" s="51" t="s">
+      <c r="Q9" s="56" t="s">
         <v>155</v>
       </c>
       <c r="R9" s="51" t="s">
@@ -12189,49 +12196,49 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="56" t="s">
         <v>1186</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="56" t="s">
         <v>1187</v>
       </c>
-      <c r="G13" s="51" t="s">
+      <c r="G13" s="56" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="51" t="s">
+      <c r="I13" s="56" t="s">
         <v>1188</v>
       </c>
-      <c r="J13" s="51" t="s">
+      <c r="J13" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="K13" s="51" t="s">
+      <c r="K13" s="56" t="s">
         <v>1189</v>
       </c>
-      <c r="L13" s="51" t="s">
+      <c r="L13" s="56" t="s">
         <v>242</v>
       </c>
       <c r="M13" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="51" t="s">
+      <c r="N13" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="O13" s="51" t="s">
+      <c r="O13" s="56" t="s">
         <v>1190</v>
       </c>
-      <c r="P13" s="51" t="s">
+      <c r="P13" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="51" t="s">
+      <c r="Q13" s="56" t="s">
         <v>1191</v>
       </c>
-      <c r="R13" s="51" t="s">
+      <c r="R13" s="56" t="s">
         <v>136</v>
       </c>
       <c r="S13" s="29"/>
@@ -12352,46 +12359,46 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="56" t="s">
         <v>1192</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="56" t="s">
         <v>1193</v>
       </c>
       <c r="F17" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="56" t="s">
         <v>1194</v>
       </c>
-      <c r="H17" s="51" t="s">
+      <c r="H17" s="56" t="s">
         <v>1195</v>
       </c>
-      <c r="I17" s="51" t="s">
+      <c r="I17" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="J17" s="51" t="s">
+      <c r="J17" s="56" t="s">
         <v>1196</v>
       </c>
       <c r="K17" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="L17" s="51" t="s">
+      <c r="L17" s="56" t="s">
         <v>1197</v>
       </c>
-      <c r="M17" s="51" t="s">
+      <c r="M17" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="51" t="s">
+      <c r="N17" s="56" t="s">
         <v>1198</v>
       </c>
-      <c r="O17" s="51" t="s">
+      <c r="O17" s="56" t="s">
         <v>1199</v>
       </c>
-      <c r="P17" s="51" t="s">
+      <c r="P17" s="56" t="s">
         <v>1200</v>
       </c>
-      <c r="Q17" s="51" t="s">
+      <c r="Q17" s="56" t="s">
         <v>1201</v>
       </c>
       <c r="R17" s="51" t="s">
@@ -12515,49 +12522,49 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="56" t="s">
         <v>1202</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="56" t="s">
         <v>1203</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="56" t="s">
         <v>1204</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="56" t="s">
         <v>1205</v>
       </c>
       <c r="H21" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="51" t="s">
+      <c r="I21" s="56" t="s">
         <v>1206</v>
       </c>
-      <c r="J21" s="51" t="s">
+      <c r="J21" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="K21" s="51" t="s">
+      <c r="K21" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="L21" s="51" t="s">
+      <c r="L21" s="56" t="s">
         <v>1199</v>
       </c>
-      <c r="M21" s="52" t="s">
+      <c r="M21" s="60" t="s">
         <v>1207</v>
       </c>
-      <c r="N21" s="51" t="s">
+      <c r="N21" s="56" t="s">
         <v>1208</v>
       </c>
-      <c r="O21" s="51" t="s">
+      <c r="O21" s="56" t="s">
         <v>1209</v>
       </c>
       <c r="P21" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="Q21" s="51" t="s">
+      <c r="Q21" s="56" t="s">
         <v>1210</v>
       </c>
-      <c r="R21" s="51" t="s">
+      <c r="R21" s="56" t="s">
         <v>1211</v>
       </c>
       <c r="S21" s="29"/>
@@ -12680,49 +12687,49 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="56" t="s">
         <v>1212</v>
       </c>
       <c r="F25" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="56" t="s">
         <v>1213</v>
       </c>
-      <c r="H25" s="51" t="s">
+      <c r="H25" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="51" t="s">
+      <c r="I25" s="56" t="s">
         <v>1214</v>
       </c>
-      <c r="J25" s="51" t="s">
+      <c r="J25" s="56" t="s">
         <v>1196</v>
       </c>
-      <c r="K25" s="51" t="s">
+      <c r="K25" s="56" t="s">
         <v>1215</v>
       </c>
-      <c r="L25" s="51" t="s">
+      <c r="L25" s="56" t="s">
         <v>1216</v>
       </c>
-      <c r="M25" s="51" t="s">
+      <c r="M25" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="N25" s="51" t="s">
+      <c r="N25" s="56" t="s">
         <v>1217</v>
       </c>
       <c r="O25" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="P25" s="51" t="s">
+      <c r="P25" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="Q25" s="51" t="s">
+      <c r="Q25" s="56" t="s">
         <v>1207</v>
       </c>
-      <c r="R25" s="51" t="s">
+      <c r="R25" s="56" t="s">
         <v>39</v>
       </c>
       <c r="S25" s="29"/>
@@ -12843,31 +12850,31 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="56" t="s">
         <v>1218</v>
       </c>
       <c r="E29" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="56" t="s">
         <v>1219</v>
       </c>
-      <c r="H29" s="51" t="s">
+      <c r="H29" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="I29" s="51" t="s">
+      <c r="I29" s="56" t="s">
         <v>1220</v>
       </c>
-      <c r="J29" s="51" t="s">
+      <c r="J29" s="56" t="s">
         <v>1221</v>
       </c>
-      <c r="K29" s="51" t="s">
+      <c r="K29" s="56" t="s">
         <v>1222</v>
       </c>
-      <c r="L29" s="51" t="s">
+      <c r="L29" s="56" t="s">
         <v>174</v>
       </c>
       <c r="M29" s="51" t="s">
@@ -13093,49 +13100,49 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="D37" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="51" t="s">
+      <c r="E37" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="51" t="s">
+      <c r="F37" s="56" t="s">
         <v>155</v>
       </c>
       <c r="G37" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="51" t="s">
+      <c r="H37" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="I37" s="51" t="s">
+      <c r="I37" s="56" t="s">
         <v>1223</v>
       </c>
-      <c r="J37" s="51" t="s">
+      <c r="J37" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="K37" s="51" t="s">
+      <c r="K37" s="56" t="s">
         <v>1198</v>
       </c>
       <c r="L37" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M37" s="51" t="s">
+      <c r="M37" s="56" t="s">
         <v>1224</v>
       </c>
-      <c r="N37" s="51" t="s">
+      <c r="N37" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="O37" s="51" t="s">
+      <c r="O37" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="P37" s="51" t="s">
+      <c r="P37" s="56" t="s">
         <v>1220</v>
       </c>
       <c r="Q37" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="R37" s="51" t="s">
+      <c r="R37" s="56" t="s">
         <v>1225</v>
       </c>
       <c r="S37" s="29"/>
@@ -13256,49 +13263,49 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="56" t="s">
         <v>1226</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="56" t="s">
         <v>1227</v>
       </c>
-      <c r="G41" s="51" t="s">
+      <c r="G41" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="51" t="s">
+      <c r="H41" s="56" t="s">
         <v>35</v>
       </c>
       <c r="I41" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="51" t="s">
+      <c r="J41" s="56" t="s">
         <v>1228</v>
       </c>
-      <c r="K41" s="51" t="s">
+      <c r="K41" s="56" t="s">
         <v>1229</v>
       </c>
-      <c r="L41" s="51" t="s">
+      <c r="L41" s="56" t="s">
         <v>1230</v>
       </c>
-      <c r="M41" s="51" t="s">
+      <c r="M41" s="56" t="s">
         <v>1231</v>
       </c>
-      <c r="N41" s="51" t="s">
+      <c r="N41" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="O41" s="51" t="s">
+      <c r="O41" s="56" t="s">
         <v>1217</v>
       </c>
       <c r="P41" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="Q41" s="51" t="s">
+      <c r="Q41" s="56" t="s">
         <v>1232</v>
       </c>
-      <c r="R41" s="51" t="s">
+      <c r="R41" s="56" t="s">
         <v>123</v>
       </c>
       <c r="S41" s="29"/>
@@ -13421,49 +13428,49 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D45" s="56" t="s">
         <v>1233</v>
       </c>
-      <c r="E45" s="51" t="s">
+      <c r="E45" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="F45" s="51" t="s">
+      <c r="F45" s="56" t="s">
         <v>1234</v>
       </c>
-      <c r="G45" s="51" t="s">
+      <c r="G45" s="56" t="s">
         <v>218</v>
       </c>
       <c r="H45" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I45" s="51" t="s">
+      <c r="I45" s="56" t="s">
         <v>1219</v>
       </c>
-      <c r="J45" s="51" t="s">
+      <c r="J45" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="K45" s="51" t="s">
+      <c r="K45" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="L45" s="51" t="s">
+      <c r="L45" s="56" t="s">
         <v>1235</v>
       </c>
-      <c r="M45" s="51" t="s">
+      <c r="M45" s="56" t="s">
         <v>1236</v>
       </c>
-      <c r="N45" s="51" t="s">
+      <c r="N45" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="O45" s="51" t="s">
+      <c r="O45" s="56" t="s">
         <v>1237</v>
       </c>
       <c r="P45" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="Q45" s="51" t="s">
+      <c r="Q45" s="56" t="s">
         <v>1238</v>
       </c>
-      <c r="R45" s="51" t="s">
+      <c r="R45" s="56" t="s">
         <v>1239</v>
       </c>
       <c r="S45" s="29"/>
@@ -13564,10 +13571,10 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="51" t="s">
+      <c r="D49" s="56" t="s">
         <v>268</v>
       </c>
-      <c r="E49" s="51" t="s">
+      <c r="E49" s="56" t="s">
         <v>155</v>
       </c>
       <c r="F49" s="51" t="s">
@@ -13774,49 +13781,49 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D57" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="E57" s="51" t="s">
+      <c r="E57" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="F57" s="51" t="s">
+      <c r="F57" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="G57" s="53" t="s">
+      <c r="G57" s="61" t="s">
         <v>1240</v>
       </c>
-      <c r="H57" s="51" t="s">
+      <c r="H57" s="56" t="s">
         <v>36</v>
       </c>
       <c r="I57" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J57" s="51" t="s">
+      <c r="J57" s="56" t="s">
         <v>1228</v>
       </c>
-      <c r="K57" s="51" t="s">
+      <c r="K57" s="56" t="s">
         <v>1225</v>
       </c>
-      <c r="L57" s="51" t="s">
+      <c r="L57" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="M57" s="51" t="s">
+      <c r="M57" s="56" t="s">
         <v>1241</v>
       </c>
       <c r="N57" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="O57" s="51" t="s">
+      <c r="O57" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="P57" s="51" t="s">
+      <c r="P57" s="56" t="s">
         <v>1242</v>
       </c>
-      <c r="Q57" s="51" t="s">
+      <c r="Q57" s="56" t="s">
         <v>1243</v>
       </c>
-      <c r="R57" s="51" t="s">
+      <c r="R57" s="56" t="s">
         <v>218</v>
       </c>
       <c r="S57" s="29"/>
@@ -13937,46 +13944,46 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="51" t="s">
+      <c r="D61" s="56" t="s">
         <v>1244</v>
       </c>
       <c r="E61" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F61" s="51" t="s">
+      <c r="F61" s="56" t="s">
         <v>1245</v>
       </c>
-      <c r="G61" s="53" t="s">
+      <c r="G61" s="61" t="s">
         <v>1246</v>
       </c>
-      <c r="H61" s="51" t="s">
+      <c r="H61" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="I61" s="51" t="s">
+      <c r="I61" s="56" t="s">
         <v>1247</v>
       </c>
-      <c r="J61" s="51" t="s">
+      <c r="J61" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="K61" s="51" t="s">
+      <c r="K61" s="56" t="s">
         <v>1248</v>
       </c>
       <c r="L61" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="M61" s="51" t="s">
+      <c r="M61" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="N61" s="51" t="s">
+      <c r="N61" s="56" t="s">
         <v>1249</v>
       </c>
-      <c r="O61" s="51" t="s">
+      <c r="O61" s="56" t="s">
         <v>1250</v>
       </c>
-      <c r="P61" s="51" t="s">
+      <c r="P61" s="56" t="s">
         <v>1232</v>
       </c>
-      <c r="Q61" s="51" t="s">
+      <c r="Q61" s="56" t="s">
         <v>1251</v>
       </c>
       <c r="R61" s="51" t="s">
@@ -14100,49 +14107,49 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="51" t="s">
+      <c r="D65" s="56" t="s">
         <v>1252</v>
       </c>
-      <c r="E65" s="51" t="s">
+      <c r="E65" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="F65" s="51" t="s">
+      <c r="F65" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="G65" s="53" t="s">
+      <c r="G65" s="61" t="s">
         <v>1253</v>
       </c>
-      <c r="H65" s="51" t="s">
+      <c r="H65" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="I65" s="51" t="s">
+      <c r="I65" s="56" t="s">
         <v>1254</v>
       </c>
       <c r="J65" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="K65" s="51" t="s">
+      <c r="K65" s="56" t="s">
         <v>1213</v>
       </c>
-      <c r="L65" s="51" t="s">
+      <c r="L65" s="56" t="s">
         <v>1242</v>
       </c>
-      <c r="M65" s="51" t="s">
+      <c r="M65" s="56" t="s">
         <v>1255</v>
       </c>
-      <c r="N65" s="51" t="s">
+      <c r="N65" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="O65" s="51" t="s">
+      <c r="O65" s="56" t="s">
         <v>1256</v>
       </c>
       <c r="P65" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="Q65" s="51" t="s">
+      <c r="Q65" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="R65" s="51" t="s">
+      <c r="R65" s="56" t="s">
         <v>1257</v>
       </c>
       <c r="S65" s="29"/>
@@ -14263,46 +14270,46 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="51" t="s">
+      <c r="D69" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="E69" s="51" t="s">
+      <c r="E69" s="56" t="s">
         <v>1258</v>
       </c>
       <c r="F69" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="53" t="s">
+      <c r="G69" s="61" t="s">
         <v>1259</v>
       </c>
-      <c r="H69" s="51" t="s">
+      <c r="H69" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="I69" s="51" t="s">
+      <c r="I69" s="56" t="s">
         <v>1260</v>
       </c>
-      <c r="J69" s="51" t="s">
+      <c r="J69" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="K69" s="51" t="s">
+      <c r="K69" s="56" t="s">
         <v>1232</v>
       </c>
-      <c r="L69" s="51" t="s">
+      <c r="L69" s="56" t="s">
         <v>1261</v>
       </c>
       <c r="M69" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="N69" s="51" t="s">
+      <c r="N69" s="56" t="s">
         <v>1262</v>
       </c>
-      <c r="O69" s="51" t="s">
+      <c r="O69" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="P69" s="51" t="s">
+      <c r="P69" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="Q69" s="51" t="s">
+      <c r="Q69" s="56" t="s">
         <v>292</v>
       </c>
       <c r="R69" s="51" t="s">
@@ -14426,49 +14433,49 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="51" t="s">
+      <c r="D73" s="56" t="s">
         <v>1263</v>
       </c>
-      <c r="E73" s="51" t="s">
+      <c r="E73" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="F73" s="51" t="s">
+      <c r="F73" s="56" t="s">
         <v>1264</v>
       </c>
-      <c r="G73" s="51" t="s">
+      <c r="G73" s="56" t="s">
         <v>1219</v>
       </c>
       <c r="H73" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I73" s="51" t="s">
+      <c r="I73" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="J73" s="51" t="s">
+      <c r="J73" s="56" t="s">
         <v>1265</v>
       </c>
-      <c r="K73" s="51" t="s">
+      <c r="K73" s="56" t="s">
         <v>1266</v>
       </c>
-      <c r="L73" s="51" t="s">
+      <c r="L73" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="M73" s="51" t="s">
+      <c r="M73" s="56" t="s">
         <v>1267</v>
       </c>
-      <c r="N73" s="51" t="s">
+      <c r="N73" s="56" t="s">
         <v>32</v>
       </c>
       <c r="O73" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="P73" s="51" t="s">
+      <c r="P73" s="56" t="s">
         <v>1268</v>
       </c>
-      <c r="Q73" s="51" t="s">
+      <c r="Q73" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="R73" s="51" t="s">
+      <c r="R73" s="56" t="s">
         <v>1232</v>
       </c>
       <c r="S73" s="29"/>
@@ -14589,46 +14596,46 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="51" t="s">
+      <c r="D77" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="E77" s="51" t="s">
+      <c r="E77" s="56" t="s">
         <v>1269</v>
       </c>
-      <c r="F77" s="51" t="s">
+      <c r="F77" s="56" t="s">
         <v>1270</v>
       </c>
       <c r="G77" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="H77" s="51" t="s">
+      <c r="H77" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="I77" s="51" t="s">
+      <c r="I77" s="56" t="s">
         <v>1271</v>
       </c>
-      <c r="J77" s="51" t="s">
+      <c r="J77" s="56" t="s">
         <v>1185</v>
       </c>
-      <c r="K77" s="51" t="s">
+      <c r="K77" s="56" t="s">
         <v>167</v>
       </c>
       <c r="L77" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M77" s="51" t="s">
+      <c r="M77" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="N77" s="51" t="s">
+      <c r="N77" s="56" t="s">
         <v>1272</v>
       </c>
-      <c r="O77" s="51" t="s">
+      <c r="O77" s="56" t="s">
         <v>1273</v>
       </c>
-      <c r="P77" s="51" t="s">
+      <c r="P77" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="Q77" s="51" t="s">
+      <c r="Q77" s="56" t="s">
         <v>159</v>
       </c>
       <c r="R77" s="51" t="s">
@@ -14750,46 +14757,46 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="51" t="s">
+      <c r="D81" s="56" t="s">
         <v>1274</v>
       </c>
-      <c r="E81" s="51" t="s">
+      <c r="E81" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="F81" s="51" t="s">
+      <c r="F81" s="56" t="s">
         <v>1232</v>
       </c>
-      <c r="G81" s="51" t="s">
+      <c r="G81" s="56" t="s">
         <v>1260</v>
       </c>
       <c r="H81" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I81" s="51" t="s">
+      <c r="I81" s="56" t="s">
         <v>1228</v>
       </c>
-      <c r="J81" s="51" t="s">
+      <c r="J81" s="56" t="s">
         <v>1225</v>
       </c>
-      <c r="K81" s="51" t="s">
+      <c r="K81" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="L81" s="51" t="s">
+      <c r="L81" s="56" t="s">
         <v>1275</v>
       </c>
       <c r="M81" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="N81" s="51" t="s">
+      <c r="N81" s="56" t="s">
         <v>1276</v>
       </c>
-      <c r="O81" s="51" t="s">
+      <c r="O81" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="P81" s="51" t="s">
+      <c r="P81" s="56" t="s">
         <v>1277</v>
       </c>
-      <c r="Q81" s="51" t="s">
+      <c r="Q81" s="56" t="s">
         <v>1278</v>
       </c>
       <c r="R81" s="51" t="s">
@@ -14913,46 +14920,46 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="51" t="s">
+      <c r="D85" s="56" t="s">
         <v>1279</v>
       </c>
-      <c r="E85" s="51" t="s">
+      <c r="E85" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="F85" s="51" t="s">
+      <c r="F85" s="56" t="s">
         <v>1280</v>
       </c>
-      <c r="G85" s="53" t="s">
+      <c r="G85" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="H85" s="51" t="s">
+      <c r="H85" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="I85" s="51" t="s">
+      <c r="I85" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="J85" s="51" t="s">
+      <c r="J85" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="K85" s="51" t="s">
+      <c r="K85" s="56" t="s">
         <v>218</v>
       </c>
       <c r="L85" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="M85" s="51" t="s">
+      <c r="M85" s="56" t="s">
         <v>1281</v>
       </c>
-      <c r="N85" s="51" t="s">
+      <c r="N85" s="56" t="s">
         <v>1282</v>
       </c>
-      <c r="O85" s="51" t="s">
+      <c r="O85" s="56" t="s">
         <v>1283</v>
       </c>
-      <c r="P85" s="51" t="s">
+      <c r="P85" s="56" t="s">
         <v>1271</v>
       </c>
-      <c r="Q85" s="51" t="s">
+      <c r="Q85" s="56" t="s">
         <v>1284</v>
       </c>
       <c r="R85" s="51" t="s">
@@ -15076,28 +15083,28 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="51" t="s">
+      <c r="D89" s="56" t="s">
         <v>1285</v>
       </c>
-      <c r="E89" s="51" t="s">
+      <c r="E89" s="56" t="s">
         <v>1286</v>
       </c>
-      <c r="F89" s="51" t="s">
+      <c r="F89" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="G89" s="51" t="s">
+      <c r="G89" s="56" t="s">
         <v>1287</v>
       </c>
       <c r="H89" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="I89" s="51" t="s">
+      <c r="I89" s="56" t="s">
         <v>287</v>
       </c>
-      <c r="J89" s="51" t="s">
+      <c r="J89" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="K89" s="51" t="s">
+      <c r="K89" s="56" t="s">
         <v>1288</v>
       </c>
       <c r="L89" s="51" t="s">
@@ -15106,19 +15113,19 @@
       <c r="M89" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="N89" s="51" t="s">
+      <c r="N89" s="56" t="s">
         <v>1289</v>
       </c>
-      <c r="O89" s="51" t="s">
+      <c r="O89" s="56" t="s">
         <v>1290</v>
       </c>
-      <c r="P89" s="51" t="s">
+      <c r="P89" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="Q89" s="51" t="s">
+      <c r="Q89" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="R89" s="51" t="s">
+      <c r="R89" s="56" t="s">
         <v>159</v>
       </c>
       <c r="S89" s="29"/>
@@ -15227,16 +15234,16 @@
       <c r="E93" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="F93" s="51" t="s">
+      <c r="F93" s="56" t="s">
         <v>1291</v>
       </c>
-      <c r="G93" s="51" t="s">
+      <c r="G93" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="H93" s="51" t="s">
+      <c r="H93" s="56" t="s">
         <v>1292</v>
       </c>
-      <c r="I93" s="51" t="s">
+      <c r="I93" s="56" t="s">
         <v>291</v>
       </c>
       <c r="J93" s="51" t="s">
@@ -15443,49 +15450,49 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="51" t="s">
+      <c r="D101" s="56" t="s">
         <v>1293</v>
       </c>
-      <c r="E101" s="51" t="s">
+      <c r="E101" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="F101" s="51" t="s">
+      <c r="F101" s="56" t="s">
         <v>1294</v>
       </c>
-      <c r="G101" s="51" t="s">
+      <c r="G101" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="H101" s="51" t="s">
+      <c r="H101" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="I101" s="51" t="s">
+      <c r="I101" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="J101" s="51" t="s">
+      <c r="J101" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="K101" s="51" t="s">
+      <c r="K101" s="56" t="s">
         <v>1295</v>
       </c>
       <c r="L101" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M101" s="51" t="s">
+      <c r="M101" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="N101" s="51" t="s">
+      <c r="N101" s="56" t="s">
         <v>1296</v>
       </c>
-      <c r="O101" s="51" t="s">
+      <c r="O101" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="P101" s="51" t="s">
+      <c r="P101" s="56" t="s">
         <v>1297</v>
       </c>
       <c r="Q101" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="R101" s="51" t="s">
+      <c r="R101" s="56" t="s">
         <v>1298</v>
       </c>
       <c r="S101" s="29"/>
@@ -15608,49 +15615,49 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="51" t="s">
+      <c r="D105" s="56" t="s">
         <v>285</v>
       </c>
-      <c r="E105" s="51" t="s">
+      <c r="E105" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="F105" s="51" t="s">
+      <c r="F105" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="G105" s="53" t="s">
+      <c r="G105" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="H105" s="51" t="s">
+      <c r="H105" s="56" t="s">
         <v>283</v>
       </c>
-      <c r="I105" s="51" t="s">
+      <c r="I105" s="56" t="s">
         <v>1299</v>
       </c>
       <c r="J105" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K105" s="51" t="s">
+      <c r="K105" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="L105" s="51" t="s">
+      <c r="L105" s="56" t="s">
         <v>1280</v>
       </c>
-      <c r="M105" s="51" t="s">
+      <c r="M105" s="56" t="s">
         <v>1300</v>
       </c>
-      <c r="N105" s="51" t="s">
+      <c r="N105" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="O105" s="54" t="s">
+      <c r="O105" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="P105" s="51" t="s">
+      <c r="P105" s="56" t="s">
         <v>218</v>
       </c>
       <c r="Q105" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="R105" s="51" t="s">
+      <c r="R105" s="56" t="s">
         <v>1301</v>
       </c>
       <c r="S105" s="29"/>
@@ -15773,46 +15780,46 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="51" t="s">
+      <c r="D109" s="56" t="s">
         <v>1265</v>
       </c>
-      <c r="E109" s="51" t="s">
+      <c r="E109" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F109" s="51" t="s">
+      <c r="F109" s="56" t="s">
         <v>1289</v>
       </c>
-      <c r="G109" s="51" t="s">
+      <c r="G109" s="56" t="s">
         <v>1290</v>
       </c>
-      <c r="H109" s="51" t="s">
+      <c r="H109" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="I109" s="51" t="s">
+      <c r="I109" s="56" t="s">
         <v>1302</v>
       </c>
-      <c r="J109" s="51" t="s">
+      <c r="J109" s="56" t="s">
         <v>1303</v>
       </c>
       <c r="K109" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="L109" s="51" t="s">
+      <c r="L109" s="56" t="s">
         <v>1304</v>
       </c>
-      <c r="M109" s="51" t="s">
+      <c r="M109" s="56" t="s">
         <v>1305</v>
       </c>
-      <c r="N109" s="51" t="s">
+      <c r="N109" s="56" t="s">
         <v>1306</v>
       </c>
-      <c r="O109" s="51" t="s">
+      <c r="O109" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="P109" s="51" t="s">
+      <c r="P109" s="56" t="s">
         <v>1307</v>
       </c>
-      <c r="Q109" s="51" t="s">
+      <c r="Q109" s="56" t="s">
         <v>122</v>
       </c>
       <c r="R109" s="51" t="s">
@@ -15936,46 +15943,46 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="51" t="s">
+      <c r="D113" s="56" t="s">
         <v>309</v>
       </c>
-      <c r="E113" s="51" t="s">
+      <c r="E113" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="F113" s="51" t="s">
+      <c r="F113" s="56" t="s">
         <v>1235</v>
       </c>
-      <c r="G113" s="51" t="s">
+      <c r="G113" s="56" t="s">
         <v>116</v>
       </c>
       <c r="H113" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I113" s="51" t="s">
+      <c r="I113" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="J113" s="51" t="s">
+      <c r="J113" s="56" t="s">
         <v>1279</v>
       </c>
-      <c r="K113" s="51" t="s">
+      <c r="K113" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="L113" s="51" t="s">
+      <c r="L113" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="M113" s="51" t="s">
+      <c r="M113" s="56" t="s">
         <v>1235</v>
       </c>
-      <c r="N113" s="51" t="s">
+      <c r="N113" s="56" t="s">
         <v>1294</v>
       </c>
       <c r="O113" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="P113" s="51" t="s">
+      <c r="P113" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="Q113" s="51" t="s">
+      <c r="Q113" s="56" t="s">
         <v>127</v>
       </c>
       <c r="R113" s="51" t="s">
@@ -16099,49 +16106,49 @@
         <f>B113+1</f>
         <v>29</v>
       </c>
-      <c r="D117" s="51" t="s">
+      <c r="D117" s="56" t="s">
         <v>1308</v>
       </c>
-      <c r="E117" s="51" t="s">
+      <c r="E117" s="56" t="s">
         <v>1210</v>
       </c>
-      <c r="F117" s="53" t="s">
+      <c r="F117" s="61" t="s">
         <v>1221</v>
       </c>
-      <c r="G117" s="53" t="s">
+      <c r="G117" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="H117" s="51" t="s">
+      <c r="H117" s="56" t="s">
         <v>45</v>
       </c>
       <c r="I117" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J117" s="51" t="s">
+      <c r="J117" s="56" t="s">
         <v>1309</v>
       </c>
-      <c r="K117" s="51" t="s">
+      <c r="K117" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="L117" s="51" t="s">
+      <c r="L117" s="56" t="s">
         <v>1232</v>
       </c>
-      <c r="M117" s="51" t="s">
+      <c r="M117" s="56" t="s">
         <v>157</v>
       </c>
       <c r="N117" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="O117" s="51" t="s">
+      <c r="O117" s="56" t="s">
         <v>1213</v>
       </c>
-      <c r="P117" s="51" t="s">
+      <c r="P117" s="56" t="s">
         <v>1241</v>
       </c>
-      <c r="Q117" s="51" t="s">
+      <c r="Q117" s="56" t="s">
         <v>1256</v>
       </c>
-      <c r="R117" s="51" t="s">
+      <c r="R117" s="56" t="s">
         <v>1185</v>
       </c>
       <c r="S117" s="29"/>
@@ -16262,49 +16269,49 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="51" t="s">
+      <c r="D121" s="56" t="s">
         <v>176</v>
       </c>
       <c r="E121" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F121" s="51" t="s">
+      <c r="F121" s="56" t="s">
         <v>1232</v>
       </c>
-      <c r="G121" s="53" t="s">
+      <c r="G121" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="H121" s="51" t="s">
+      <c r="H121" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="I121" s="51" t="s">
+      <c r="I121" s="56" t="s">
         <v>218</v>
       </c>
       <c r="J121" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K121" s="51" t="s">
+      <c r="K121" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="L121" s="51" t="s">
+      <c r="L121" s="56" t="s">
         <v>1310</v>
       </c>
-      <c r="M121" s="51" t="s">
+      <c r="M121" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="N121" s="51" t="s">
+      <c r="N121" s="56" t="s">
         <v>155</v>
       </c>
       <c r="O121" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="P121" s="51" t="s">
+      <c r="P121" s="56" t="s">
         <v>309</v>
       </c>
-      <c r="Q121" s="51" t="s">
+      <c r="Q121" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="R121" s="51" t="s">
+      <c r="R121" s="56" t="s">
         <v>172</v>
       </c>
       <c r="S121" s="29"/>
@@ -16415,31 +16422,31 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="51" t="s">
+      <c r="D125" s="56" t="s">
         <v>229</v>
       </c>
       <c r="E125" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F125" s="51" t="s">
+      <c r="F125" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="G125" s="53" t="s">
+      <c r="G125" s="61" t="s">
         <v>1267</v>
       </c>
-      <c r="H125" s="51" t="s">
+      <c r="H125" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="I125" s="51" t="s">
+      <c r="I125" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="J125" s="51" t="s">
+      <c r="J125" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="K125" s="51" t="s">
+      <c r="K125" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="L125" s="51" t="s">
+      <c r="L125" s="56" t="s">
         <v>29</v>
       </c>
       <c r="M125" s="51" t="s">
